--- a/Characterisation Data/Array Target Characterisation.xlsx
+++ b/Characterisation Data/Array Target Characterisation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stfc365-my.sharepoint.com/personal/christopher_gardner_stfc_ac_uk/Documents/Coding files/MATLAB/Borghesi Horizontal Laser Positioning/Characterisation Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stfc365.sharepoint.com/sites/TargetFabrication2/Shared Documents/1. Expt Planning/GTA 1022 Borghesi/3. Delivery/Characterisation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="11_FE310490A0B32A38BD8A12762798BD300347D4B6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F896CFA3-0DE7-4167-9D61-5249CFE4B483}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="11_FE310490A0B32A38BD8A12762798BD300347D4B6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3C2554E-A47D-4028-9D2B-5C8D0E9DF58A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="14">
   <si>
     <t>Array</t>
   </si>
@@ -84,7 +84,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,16 +266,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>161612</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>185881</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>19372</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>357331</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19059</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -291,20 +291,62 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="21587408">
-          <a:off x="7381875" y="923612"/>
-          <a:ext cx="3853006" cy="3096260"/>
+          <a:off x="14868525" y="276225"/>
+          <a:ext cx="3853006" cy="4505334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0361C08-1DB1-D57A-456A-1C0C3FB11F61}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7543800" y="381000"/>
+          <a:ext cx="3457575" cy="2790825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -582,10 +624,10 @@
   <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="4" width="9.140625" style="2"/>
@@ -596,7 +638,7 @@
     <col min="9" max="9" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -625,7 +667,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -642,7 +684,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="9"/>
       <c r="B3" s="11"/>
       <c r="C3" s="5">
@@ -655,7 +697,7 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="9"/>
       <c r="B4" s="11"/>
       <c r="C4" s="5">
@@ -668,7 +710,7 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="9"/>
       <c r="B5" s="12"/>
       <c r="C5" s="5">
@@ -681,7 +723,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="9"/>
       <c r="B6" s="13" t="s">
         <v>10</v>
@@ -696,7 +738,7 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="9"/>
       <c r="B7" s="11"/>
       <c r="C7" s="5">
@@ -709,7 +751,7 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="9"/>
       <c r="B8" s="11"/>
       <c r="C8" s="5">
@@ -722,7 +764,7 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="9"/>
       <c r="B9" s="12"/>
       <c r="C9" s="5">
@@ -735,7 +777,7 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="9"/>
       <c r="B10" s="13" t="s">
         <v>11</v>
@@ -750,7 +792,7 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="9"/>
       <c r="B11" s="11"/>
       <c r="C11" s="5">
@@ -769,7 +811,7 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="9"/>
       <c r="B12" s="11"/>
       <c r="C12" s="5">
@@ -788,7 +830,7 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="9"/>
       <c r="B13" s="12"/>
       <c r="C13" s="5">
@@ -807,7 +849,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="9"/>
       <c r="B14" s="13" t="s">
         <v>13</v>
@@ -822,7 +864,7 @@
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="9"/>
       <c r="B15" s="11"/>
       <c r="C15" s="5">
@@ -841,7 +883,7 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="9"/>
       <c r="B16" s="11"/>
       <c r="C16" s="5">
@@ -854,7 +896,7 @@
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="10"/>
       <c r="B17" s="14"/>
       <c r="C17" s="7">
@@ -867,7 +909,7 @@
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="9">
         <v>2</v>
       </c>
@@ -877,53 +919,85 @@
       <c r="C18" s="5">
         <v>1</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="5">
+        <f>6</f>
+        <v>6</v>
+      </c>
+      <c r="F18" s="5">
+        <f>300</f>
+        <v>300</v>
+      </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="9"/>
       <c r="B19" s="11"/>
       <c r="C19" s="5">
         <v>2</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="D19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="5">
+        <f>6</f>
+        <v>6</v>
+      </c>
+      <c r="F19" s="5">
+        <f>300</f>
+        <v>300</v>
+      </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="9"/>
       <c r="B20" s="11"/>
       <c r="C20" s="5">
         <v>3</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="D20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="5">
+        <f>6</f>
+        <v>6</v>
+      </c>
+      <c r="F20" s="5">
+        <f>300</f>
+        <v>300</v>
+      </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="9"/>
       <c r="B21" s="12"/>
       <c r="C21" s="5">
         <v>4</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="D21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="5">
+        <f>6</f>
+        <v>6</v>
+      </c>
+      <c r="F21" s="5">
+        <f>300</f>
+        <v>300</v>
+      </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="9"/>
       <c r="B22" s="13" t="s">
         <v>10</v>
@@ -931,53 +1005,85 @@
       <c r="C22" s="5">
         <v>1</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="5">
+        <f>6</f>
+        <v>6</v>
+      </c>
+      <c r="F22" s="5">
+        <f>300</f>
+        <v>300</v>
+      </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="9"/>
       <c r="B23" s="11"/>
       <c r="C23" s="5">
         <v>2</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="D23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="5">
+        <f>6</f>
+        <v>6</v>
+      </c>
+      <c r="F23" s="5">
+        <f>300</f>
+        <v>300</v>
+      </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="9"/>
       <c r="B24" s="11"/>
       <c r="C24" s="5">
         <v>3</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
+      <c r="D24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="5">
+        <f>6</f>
+        <v>6</v>
+      </c>
+      <c r="F24" s="5">
+        <f>300</f>
+        <v>300</v>
+      </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="9"/>
       <c r="B25" s="12"/>
       <c r="C25" s="5">
         <v>4</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
+      <c r="D25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="5">
+        <f>6</f>
+        <v>6</v>
+      </c>
+      <c r="F25" s="5">
+        <f>300</f>
+        <v>300</v>
+      </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="9"/>
       <c r="B26" s="13" t="s">
         <v>11</v>
@@ -985,53 +1091,85 @@
       <c r="C26" s="5">
         <v>1</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+      <c r="D26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="5">
+        <f>6</f>
+        <v>6</v>
+      </c>
+      <c r="F26" s="5">
+        <f>300</f>
+        <v>300</v>
+      </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="9"/>
       <c r="B27" s="11"/>
       <c r="C27" s="5">
         <v>2</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
+      <c r="D27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="5">
+        <f>6</f>
+        <v>6</v>
+      </c>
+      <c r="F27" s="5">
+        <f>300</f>
+        <v>300</v>
+      </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="9"/>
       <c r="B28" s="11"/>
       <c r="C28" s="5">
         <v>3</v>
       </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
+      <c r="D28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="5">
+        <f>6</f>
+        <v>6</v>
+      </c>
+      <c r="F28" s="5">
+        <f>300</f>
+        <v>300</v>
+      </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="9"/>
       <c r="B29" s="12"/>
       <c r="C29" s="5">
         <v>4</v>
       </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
+      <c r="D29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="5">
+        <f>6</f>
+        <v>6</v>
+      </c>
+      <c r="F29" s="5">
+        <f>300</f>
+        <v>300</v>
+      </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="9"/>
       <c r="B30" s="13" t="s">
         <v>13</v>
@@ -1039,53 +1177,85 @@
       <c r="C30" s="5">
         <v>1</v>
       </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
+      <c r="D30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="5">
+        <f>6</f>
+        <v>6</v>
+      </c>
+      <c r="F30" s="5">
+        <f>300</f>
+        <v>300</v>
+      </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="9"/>
       <c r="B31" s="11"/>
       <c r="C31" s="5">
         <v>2</v>
       </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
+      <c r="D31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="5">
+        <f>6</f>
+        <v>6</v>
+      </c>
+      <c r="F31" s="5">
+        <f>300</f>
+        <v>300</v>
+      </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="9"/>
       <c r="B32" s="11"/>
       <c r="C32" s="5">
         <v>3</v>
       </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
+      <c r="D32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="5">
+        <f>6</f>
+        <v>6</v>
+      </c>
+      <c r="F32" s="5">
+        <f>300</f>
+        <v>300</v>
+      </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="10"/>
       <c r="B33" s="14"/>
       <c r="C33" s="7">
         <v>4</v>
       </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
+      <c r="D33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="5">
+        <f>6</f>
+        <v>6</v>
+      </c>
+      <c r="F33" s="5">
+        <f>300</f>
+        <v>300</v>
+      </c>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="9">
         <v>3</v>
       </c>
@@ -1102,7 +1272,7 @@
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="9"/>
       <c r="B35" s="11"/>
       <c r="C35" s="5">
@@ -1115,7 +1285,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="9"/>
       <c r="B36" s="11"/>
       <c r="C36" s="5">
@@ -1128,7 +1298,7 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="9"/>
       <c r="B37" s="12"/>
       <c r="C37" s="5">
@@ -1141,7 +1311,7 @@
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="9"/>
       <c r="B38" s="13" t="s">
         <v>10</v>
@@ -1156,7 +1326,7 @@
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" s="9"/>
       <c r="B39" s="11"/>
       <c r="C39" s="5">
@@ -1169,7 +1339,7 @@
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" s="9"/>
       <c r="B40" s="11"/>
       <c r="C40" s="5">
@@ -1182,7 +1352,7 @@
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41" s="9"/>
       <c r="B41" s="12"/>
       <c r="C41" s="5">
@@ -1195,7 +1365,7 @@
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" s="9"/>
       <c r="B42" s="13" t="s">
         <v>11</v>
@@ -1210,7 +1380,7 @@
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" s="9"/>
       <c r="B43" s="11"/>
       <c r="C43" s="5">
@@ -1223,7 +1393,7 @@
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" s="9"/>
       <c r="B44" s="11"/>
       <c r="C44" s="5">
@@ -1236,7 +1406,7 @@
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" s="9"/>
       <c r="B45" s="12"/>
       <c r="C45" s="5">
@@ -1249,7 +1419,7 @@
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" s="9"/>
       <c r="B46" s="13" t="s">
         <v>13</v>
@@ -1264,7 +1434,7 @@
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47" s="9"/>
       <c r="B47" s="11"/>
       <c r="C47" s="5">
@@ -1277,7 +1447,7 @@
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" s="9"/>
       <c r="B48" s="11"/>
       <c r="C48" s="5">
@@ -1290,7 +1460,7 @@
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" s="10"/>
       <c r="B49" s="14"/>
       <c r="C49" s="7">
@@ -1303,7 +1473,7 @@
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" s="9">
         <v>4</v>
       </c>
@@ -1320,7 +1490,7 @@
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" s="9"/>
       <c r="B51" s="11"/>
       <c r="C51" s="5">
@@ -1333,7 +1503,7 @@
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" s="9"/>
       <c r="B52" s="11"/>
       <c r="C52" s="5">
@@ -1346,7 +1516,7 @@
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" s="9"/>
       <c r="B53" s="12"/>
       <c r="C53" s="5">
@@ -1359,7 +1529,7 @@
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" s="9"/>
       <c r="B54" s="13" t="s">
         <v>10</v>
@@ -1374,7 +1544,7 @@
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" s="9"/>
       <c r="B55" s="11"/>
       <c r="C55" s="5">
@@ -1387,7 +1557,7 @@
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" s="9"/>
       <c r="B56" s="11"/>
       <c r="C56" s="5">
@@ -1400,7 +1570,7 @@
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" s="9"/>
       <c r="B57" s="12"/>
       <c r="C57" s="5">
@@ -1413,7 +1583,7 @@
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58" s="9"/>
       <c r="B58" s="13" t="s">
         <v>11</v>
@@ -1428,7 +1598,7 @@
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="A59" s="9"/>
       <c r="B59" s="11"/>
       <c r="C59" s="5">
@@ -1441,7 +1611,7 @@
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" s="9"/>
       <c r="B60" s="11"/>
       <c r="C60" s="5">
@@ -1454,7 +1624,7 @@
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="A61" s="9"/>
       <c r="B61" s="12"/>
       <c r="C61" s="5">
@@ -1467,7 +1637,7 @@
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62" s="9"/>
       <c r="B62" s="13" t="s">
         <v>13</v>
@@ -1482,7 +1652,7 @@
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="A63" s="9"/>
       <c r="B63" s="11"/>
       <c r="C63" s="5">
@@ -1495,7 +1665,7 @@
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64" s="9"/>
       <c r="B64" s="11"/>
       <c r="C64" s="5">
@@ -1508,7 +1678,7 @@
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" s="10"/>
       <c r="B65" s="14"/>
       <c r="C65" s="7">
@@ -1550,15 +1720,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <ApprovalRequested xmlns="b78d6d24-d6db-4d75-9c62-aa5d16939a2a" xsi:nil="true"/>
@@ -1579,7 +1740,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100695ECA461C232F4AAEC38BDBCF991C34" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="59a9ea53a97323102fd6db9b998f0b5b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b78d6d24-d6db-4d75-9c62-aa5d16939a2a" xmlns:ns3="029942aa-539e-4767-81e4-a62063a6e1cb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c1df2dcb4e8f42f9041788b58686dd0b" ns2:_="" ns3:_="">
     <xsd:import namespace="b78d6d24-d6db-4d75-9c62-aa5d16939a2a"/>
@@ -1862,40 +2023,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C55BA5DB-FABC-42B8-A62D-4229D8279EF7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDD6B012-B9AC-4751-AE85-9BF9548DF2A7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDD6B012-B9AC-4751-AE85-9BF9548DF2A7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b78d6d24-d6db-4d75-9c62-aa5d16939a2a"/>
-    <ds:schemaRef ds:uri="029942aa-539e-4767-81e4-a62063a6e1cb"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72F46C54-F7FE-4881-AE33-32A42E9027D0}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72F46C54-F7FE-4881-AE33-32A42E9027D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b78d6d24-d6db-4d75-9c62-aa5d16939a2a"/>
-    <ds:schemaRef ds:uri="029942aa-539e-4767-81e4-a62063a6e1cb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C55BA5DB-FABC-42B8-A62D-4229D8279EF7}"/>
 </file>
--- a/Characterisation Data/Array Target Characterisation.xlsx
+++ b/Characterisation Data/Array Target Characterisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stfc365.sharepoint.com/sites/TargetFabrication2/Shared Documents/1. Expt Planning/GTA 1022 Borghesi/3. Delivery/Characterisation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="11_FE310490A0B32A38BD8A12762798BD300347D4B6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3C2554E-A47D-4028-9D2B-5C8D0E9DF58A}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="11_FE310490A0B32A38BD8A12762798BD300347D4B6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49EEEC7E-D7DF-4A97-A7FD-BBBD430BD0E9}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="15">
   <si>
     <t>Array</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>Cu wire</t>
   </si>
 </sst>
 </file>
@@ -623,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U23" sqref="U23"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1265,8 +1268,12 @@
       <c r="C34" s="5">
         <v>1</v>
       </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
+      <c r="D34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="5">
+        <v>25</v>
+      </c>
       <c r="F34" s="5"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -1278,9 +1285,16 @@
       <c r="C35" s="5">
         <v>2</v>
       </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
+      <c r="D35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="5">
+        <v>15</v>
+      </c>
+      <c r="F35" s="5">
+        <f>300</f>
+        <v>300</v>
+      </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
@@ -1291,9 +1305,16 @@
       <c r="C36" s="5">
         <v>3</v>
       </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
+      <c r="D36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="5">
+        <v>15</v>
+      </c>
+      <c r="F36" s="5">
+        <f>300</f>
+        <v>300</v>
+      </c>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
@@ -1304,9 +1325,16 @@
       <c r="C37" s="5">
         <v>4</v>
       </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
+      <c r="D37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="5">
+        <v>15</v>
+      </c>
+      <c r="F37" s="5">
+        <f>300</f>
+        <v>300</v>
+      </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
@@ -1319,9 +1347,16 @@
       <c r="C38" s="5">
         <v>1</v>
       </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
+      <c r="D38" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="5">
+        <v>15</v>
+      </c>
+      <c r="F38" s="5">
+        <f>300</f>
+        <v>300</v>
+      </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
@@ -1332,9 +1367,16 @@
       <c r="C39" s="5">
         <v>2</v>
       </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
+      <c r="D39" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="5">
+        <v>15</v>
+      </c>
+      <c r="F39" s="5">
+        <f>300</f>
+        <v>300</v>
+      </c>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
@@ -1345,9 +1387,16 @@
       <c r="C40" s="5">
         <v>3</v>
       </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
+      <c r="D40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="5">
+        <v>15</v>
+      </c>
+      <c r="F40" s="5">
+        <f>300</f>
+        <v>300</v>
+      </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -1358,9 +1407,16 @@
       <c r="C41" s="5">
         <v>4</v>
       </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
+      <c r="D41" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="5">
+        <v>15</v>
+      </c>
+      <c r="F41" s="5">
+        <f>300</f>
+        <v>300</v>
+      </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
@@ -1373,9 +1429,16 @@
       <c r="C42" s="5">
         <v>1</v>
       </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
+      <c r="D42" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="5">
+        <v>15</v>
+      </c>
+      <c r="F42" s="5">
+        <f>300</f>
+        <v>300</v>
+      </c>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
@@ -1386,9 +1449,16 @@
       <c r="C43" s="5">
         <v>2</v>
       </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
+      <c r="D43" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="5">
+        <v>15</v>
+      </c>
+      <c r="F43" s="5">
+        <f>300</f>
+        <v>300</v>
+      </c>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
@@ -1399,9 +1469,16 @@
       <c r="C44" s="5">
         <v>3</v>
       </c>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
+      <c r="D44" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="5">
+        <v>15</v>
+      </c>
+      <c r="F44" s="5">
+        <f>300</f>
+        <v>300</v>
+      </c>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
@@ -1412,9 +1489,16 @@
       <c r="C45" s="5">
         <v>4</v>
       </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
+      <c r="D45" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="5">
+        <v>15</v>
+      </c>
+      <c r="F45" s="5">
+        <f>300</f>
+        <v>300</v>
+      </c>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
@@ -1427,9 +1511,16 @@
       <c r="C46" s="5">
         <v>1</v>
       </c>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
+      <c r="D46" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="5">
+        <v>15</v>
+      </c>
+      <c r="F46" s="5">
+        <f>300</f>
+        <v>300</v>
+      </c>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
@@ -1440,9 +1531,16 @@
       <c r="C47" s="5">
         <v>2</v>
       </c>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
+      <c r="D47" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="5">
+        <v>15</v>
+      </c>
+      <c r="F47" s="5">
+        <f>300</f>
+        <v>300</v>
+      </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
@@ -1453,9 +1551,16 @@
       <c r="C48" s="5">
         <v>3</v>
       </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
+      <c r="D48" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="5">
+        <v>15</v>
+      </c>
+      <c r="F48" s="5">
+        <f>300</f>
+        <v>300</v>
+      </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
@@ -1466,9 +1571,16 @@
       <c r="C49" s="7">
         <v>4</v>
       </c>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
+      <c r="D49" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="5">
+        <v>15</v>
+      </c>
+      <c r="F49" s="5">
+        <f>300</f>
+        <v>300</v>
+      </c>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
@@ -1693,26 +1805,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A18:A33"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A50:A65"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="B62:B65"/>
     <mergeCell ref="A34:A49"/>
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="B38:B41"/>
     <mergeCell ref="B42:B45"/>
     <mergeCell ref="B46:B49"/>
-    <mergeCell ref="A50:A65"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A18:A33"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1720,27 +1832,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ApprovalRequested xmlns="b78d6d24-d6db-4d75-9c62-aa5d16939a2a" xsi:nil="true"/>
-    <ApprovedBy xmlns="b78d6d24-d6db-4d75-9c62-aa5d16939a2a">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </ApprovedBy>
-    <Comments xmlns="b78d6d24-d6db-4d75-9c62-aa5d16939a2a" xsi:nil="true"/>
-    <Approved_x003f_ xmlns="b78d6d24-d6db-4d75-9c62-aa5d16939a2a">false</Approved_x003f_>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b78d6d24-d6db-4d75-9c62-aa5d16939a2a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="029942aa-539e-4767-81e4-a62063a6e1cb" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100695ECA461C232F4AAEC38BDBCF991C34" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="59a9ea53a97323102fd6db9b998f0b5b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b78d6d24-d6db-4d75-9c62-aa5d16939a2a" xmlns:ns3="029942aa-539e-4767-81e4-a62063a6e1cb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c1df2dcb4e8f42f9041788b58686dd0b" ns2:_="" ns3:_="">
     <xsd:import namespace="b78d6d24-d6db-4d75-9c62-aa5d16939a2a"/>
@@ -2023,6 +2114,27 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ApprovalRequested xmlns="b78d6d24-d6db-4d75-9c62-aa5d16939a2a" xsi:nil="true"/>
+    <ApprovedBy xmlns="b78d6d24-d6db-4d75-9c62-aa5d16939a2a">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </ApprovedBy>
+    <Comments xmlns="b78d6d24-d6db-4d75-9c62-aa5d16939a2a" xsi:nil="true"/>
+    <Approved_x003f_ xmlns="b78d6d24-d6db-4d75-9c62-aa5d16939a2a">false</Approved_x003f_>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b78d6d24-d6db-4d75-9c62-aa5d16939a2a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="029942aa-539e-4767-81e4-a62063a6e1cb" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2033,11 +2145,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDD6B012-B9AC-4751-AE85-9BF9548DF2A7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72F46C54-F7FE-4881-AE33-32A42E9027D0}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72F46C54-F7FE-4881-AE33-32A42E9027D0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDD6B012-B9AC-4751-AE85-9BF9548DF2A7}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Characterisation Data/Array Target Characterisation.xlsx
+++ b/Characterisation Data/Array Target Characterisation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stfc365.sharepoint.com/sites/TargetFabrication2/Shared Documents/1. Expt Planning/GTA 1022 Borghesi/3. Delivery/Characterisation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="11_FE310490A0B32A38BD8A12762798BD300347D4B6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49EEEC7E-D7DF-4A97-A7FD-BBBD430BD0E9}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="11_FE310490A0B32A38BD8A12762798BD300347D4B6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7C04701-2546-4B10-AFC6-91FC065A0F27}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="15">
   <si>
     <t>Array</t>
   </si>
@@ -626,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52:F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1595,8 +1595,12 @@
       <c r="C50" s="5">
         <v>1</v>
       </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
+      <c r="D50" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="5">
+        <v>25</v>
+      </c>
       <c r="F50" s="5"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
@@ -1608,9 +1612,15 @@
       <c r="C51" s="5">
         <v>2</v>
       </c>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
+      <c r="D51" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="5">
+        <v>2</v>
+      </c>
+      <c r="F51" s="5">
+        <v>100</v>
+      </c>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
@@ -1621,9 +1631,15 @@
       <c r="C52" s="5">
         <v>3</v>
       </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
+      <c r="D52" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="5">
+        <v>2</v>
+      </c>
+      <c r="F52" s="5">
+        <v>100</v>
+      </c>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
@@ -1634,9 +1650,15 @@
       <c r="C53" s="5">
         <v>4</v>
       </c>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
+      <c r="D53" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="5">
+        <v>2</v>
+      </c>
+      <c r="F53" s="5">
+        <v>100</v>
+      </c>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
@@ -1649,9 +1671,15 @@
       <c r="C54" s="5">
         <v>1</v>
       </c>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
+      <c r="D54" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="5">
+        <v>2</v>
+      </c>
+      <c r="F54" s="5">
+        <v>100</v>
+      </c>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
@@ -1662,9 +1690,15 @@
       <c r="C55" s="5">
         <v>2</v>
       </c>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
+      <c r="D55" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="5">
+        <v>2</v>
+      </c>
+      <c r="F55" s="5">
+        <v>100</v>
+      </c>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
@@ -1675,9 +1709,15 @@
       <c r="C56" s="5">
         <v>3</v>
       </c>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
+      <c r="D56" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="5">
+        <v>2</v>
+      </c>
+      <c r="F56" s="5">
+        <v>100</v>
+      </c>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
@@ -1688,9 +1728,15 @@
       <c r="C57" s="5">
         <v>4</v>
       </c>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
+      <c r="D57" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="5">
+        <v>2</v>
+      </c>
+      <c r="F57" s="5">
+        <v>100</v>
+      </c>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
@@ -1703,9 +1749,15 @@
       <c r="C58" s="5">
         <v>1</v>
       </c>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
+      <c r="D58" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="5">
+        <v>2</v>
+      </c>
+      <c r="F58" s="5">
+        <v>100</v>
+      </c>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
@@ -1716,9 +1768,15 @@
       <c r="C59" s="5">
         <v>2</v>
       </c>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
+      <c r="D59" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="5">
+        <v>2</v>
+      </c>
+      <c r="F59" s="5">
+        <v>100</v>
+      </c>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
@@ -1729,9 +1787,15 @@
       <c r="C60" s="5">
         <v>3</v>
       </c>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
+      <c r="D60" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="5">
+        <v>2</v>
+      </c>
+      <c r="F60" s="5">
+        <v>100</v>
+      </c>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
@@ -1742,9 +1806,15 @@
       <c r="C61" s="5">
         <v>4</v>
       </c>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
+      <c r="D61" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="5">
+        <v>2</v>
+      </c>
+      <c r="F61" s="5">
+        <v>100</v>
+      </c>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
@@ -1757,9 +1827,15 @@
       <c r="C62" s="5">
         <v>1</v>
       </c>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
+      <c r="D62" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="5">
+        <v>2</v>
+      </c>
+      <c r="F62" s="5">
+        <v>100</v>
+      </c>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
@@ -1770,9 +1846,15 @@
       <c r="C63" s="5">
         <v>2</v>
       </c>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
+      <c r="D63" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" s="5">
+        <v>2</v>
+      </c>
+      <c r="F63" s="5">
+        <v>100</v>
+      </c>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
@@ -1783,9 +1865,15 @@
       <c r="C64" s="5">
         <v>3</v>
       </c>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
+      <c r="D64" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" s="5">
+        <v>2</v>
+      </c>
+      <c r="F64" s="5">
+        <v>100</v>
+      </c>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
@@ -1796,35 +1884,41 @@
       <c r="C65" s="7">
         <v>4</v>
       </c>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
+      <c r="D65" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="5">
+        <v>2</v>
+      </c>
+      <c r="F65" s="5">
+        <v>100</v>
+      </c>
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
       <c r="I65" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A34:A49"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="A50:A65"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
     <mergeCell ref="A18:A33"/>
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="B30:B33"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A50:A65"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="A34:A49"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="B46:B49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1832,6 +1926,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ApprovalRequested xmlns="b78d6d24-d6db-4d75-9c62-aa5d16939a2a" xsi:nil="true"/>
+    <ApprovedBy xmlns="b78d6d24-d6db-4d75-9c62-aa5d16939a2a">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </ApprovedBy>
+    <Comments xmlns="b78d6d24-d6db-4d75-9c62-aa5d16939a2a" xsi:nil="true"/>
+    <Approved_x003f_ xmlns="b78d6d24-d6db-4d75-9c62-aa5d16939a2a">false</Approved_x003f_>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b78d6d24-d6db-4d75-9c62-aa5d16939a2a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="029942aa-539e-4767-81e4-a62063a6e1cb" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100695ECA461C232F4AAEC38BDBCF991C34" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="59a9ea53a97323102fd6db9b998f0b5b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b78d6d24-d6db-4d75-9c62-aa5d16939a2a" xmlns:ns3="029942aa-539e-4767-81e4-a62063a6e1cb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c1df2dcb4e8f42f9041788b58686dd0b" ns2:_="" ns3:_="">
     <xsd:import namespace="b78d6d24-d6db-4d75-9c62-aa5d16939a2a"/>
@@ -2114,27 +2229,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ApprovalRequested xmlns="b78d6d24-d6db-4d75-9c62-aa5d16939a2a" xsi:nil="true"/>
-    <ApprovedBy xmlns="b78d6d24-d6db-4d75-9c62-aa5d16939a2a">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </ApprovedBy>
-    <Comments xmlns="b78d6d24-d6db-4d75-9c62-aa5d16939a2a" xsi:nil="true"/>
-    <Approved_x003f_ xmlns="b78d6d24-d6db-4d75-9c62-aa5d16939a2a">false</Approved_x003f_>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b78d6d24-d6db-4d75-9c62-aa5d16939a2a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="029942aa-539e-4767-81e4-a62063a6e1cb" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2145,11 +2239,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72F46C54-F7FE-4881-AE33-32A42E9027D0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDD6B012-B9AC-4751-AE85-9BF9548DF2A7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDD6B012-B9AC-4751-AE85-9BF9548DF2A7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72F46C54-F7FE-4881-AE33-32A42E9027D0}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Characterisation Data/Array Target Characterisation.xlsx
+++ b/Characterisation Data/Array Target Characterisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stfc365.sharepoint.com/sites/TargetFabrication2/Shared Documents/1. Expt Planning/GTA 1022 Borghesi/3. Delivery/Characterisation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="11_FE310490A0B32A38BD8A12762798BD300347D4B6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7C04701-2546-4B10-AFC6-91FC065A0F27}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="11_FE310490A0B32A38BD8A12762798BD300347D4B6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA44A0E8-CF0C-417B-934F-C6F881036068}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="15">
   <si>
     <t>Array</t>
   </si>
@@ -104,7 +104,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -212,11 +212,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -248,6 +412,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,10 +824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52:F65"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66:I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1238,49 +1438,49 @@
       <c r="I32" s="6"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="10"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="7">
+      <c r="A33" s="9"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="27">
         <v>4</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="5">
+      <c r="D33" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="27">
         <f>6</f>
         <v>6</v>
       </c>
-      <c r="F33" s="5">
-        <f>300</f>
-        <v>300</v>
-      </c>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
+      <c r="F33" s="27">
+        <f>300</f>
+        <v>300</v>
+      </c>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="9">
+      <c r="A34" s="15">
         <v>3</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="17">
         <v>1</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="17">
         <v>25</v>
       </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="19"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="9"/>
+      <c r="A35" s="20"/>
       <c r="B35" s="11"/>
       <c r="C35" s="5">
         <v>2</v>
@@ -1297,10 +1497,10 @@
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
+      <c r="I35" s="21"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="9"/>
+      <c r="A36" s="20"/>
       <c r="B36" s="11"/>
       <c r="C36" s="5">
         <v>3</v>
@@ -1317,10 +1517,10 @@
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
+      <c r="I36" s="21"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="9"/>
+      <c r="A37" s="20"/>
       <c r="B37" s="12"/>
       <c r="C37" s="5">
         <v>4</v>
@@ -1337,10 +1537,10 @@
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
+      <c r="I37" s="21"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="9"/>
+      <c r="A38" s="20"/>
       <c r="B38" s="13" t="s">
         <v>10</v>
       </c>
@@ -1359,10 +1559,10 @@
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
+      <c r="I38" s="21"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="9"/>
+      <c r="A39" s="20"/>
       <c r="B39" s="11"/>
       <c r="C39" s="5">
         <v>2</v>
@@ -1379,10 +1579,10 @@
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
+      <c r="I39" s="21"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="9"/>
+      <c r="A40" s="20"/>
       <c r="B40" s="11"/>
       <c r="C40" s="5">
         <v>3</v>
@@ -1399,10 +1599,10 @@
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
+      <c r="I40" s="21"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="9"/>
+      <c r="A41" s="20"/>
       <c r="B41" s="12"/>
       <c r="C41" s="5">
         <v>4</v>
@@ -1419,10 +1619,10 @@
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
+      <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="9"/>
+      <c r="A42" s="20"/>
       <c r="B42" s="13" t="s">
         <v>11</v>
       </c>
@@ -1441,10 +1641,10 @@
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
+      <c r="I42" s="21"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="9"/>
+      <c r="A43" s="20"/>
       <c r="B43" s="11"/>
       <c r="C43" s="5">
         <v>2</v>
@@ -1461,10 +1661,10 @@
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
+      <c r="I43" s="21"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="9"/>
+      <c r="A44" s="20"/>
       <c r="B44" s="11"/>
       <c r="C44" s="5">
         <v>3</v>
@@ -1481,10 +1681,10 @@
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
+      <c r="I44" s="21"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="9"/>
+      <c r="A45" s="20"/>
       <c r="B45" s="12"/>
       <c r="C45" s="5">
         <v>4</v>
@@ -1501,10 +1701,10 @@
       </c>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
+      <c r="I45" s="21"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="9"/>
+      <c r="A46" s="20"/>
       <c r="B46" s="13" t="s">
         <v>13</v>
       </c>
@@ -1523,10 +1723,10 @@
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
+      <c r="I46" s="21"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="9"/>
+      <c r="A47" s="20"/>
       <c r="B47" s="11"/>
       <c r="C47" s="5">
         <v>2</v>
@@ -1543,10 +1743,10 @@
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
+      <c r="I47" s="21"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="9"/>
+      <c r="A48" s="20"/>
       <c r="B48" s="11"/>
       <c r="C48" s="5">
         <v>3</v>
@@ -1563,51 +1763,51 @@
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
+      <c r="I48" s="21"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="10"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="7">
+      <c r="A49" s="22"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="24">
         <v>4</v>
       </c>
-      <c r="D49" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="5">
+      <c r="D49" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="24">
         <v>15</v>
       </c>
-      <c r="F49" s="5">
-        <f>300</f>
-        <v>300</v>
-      </c>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
+      <c r="F49" s="24">
+        <f>300</f>
+        <v>300</v>
+      </c>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="26"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="9">
+      <c r="A50" s="20">
         <v>4</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="29">
         <v>1</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E50" s="29">
         <v>25</v>
       </c>
-      <c r="F50" s="5"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="31"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="9"/>
+      <c r="A51" s="20"/>
       <c r="B51" s="11"/>
       <c r="C51" s="5">
         <v>2</v>
@@ -1623,10 +1823,10 @@
       </c>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
+      <c r="I51" s="21"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="9"/>
+      <c r="A52" s="20"/>
       <c r="B52" s="11"/>
       <c r="C52" s="5">
         <v>3</v>
@@ -1642,10 +1842,10 @@
       </c>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
+      <c r="I52" s="21"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="9"/>
+      <c r="A53" s="20"/>
       <c r="B53" s="12"/>
       <c r="C53" s="5">
         <v>4</v>
@@ -1661,10 +1861,10 @@
       </c>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
+      <c r="I53" s="21"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="9"/>
+      <c r="A54" s="20"/>
       <c r="B54" s="13" t="s">
         <v>10</v>
       </c>
@@ -1682,10 +1882,10 @@
       </c>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
+      <c r="I54" s="21"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="9"/>
+      <c r="A55" s="20"/>
       <c r="B55" s="11"/>
       <c r="C55" s="5">
         <v>2</v>
@@ -1701,10 +1901,10 @@
       </c>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
+      <c r="I55" s="21"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="9"/>
+      <c r="A56" s="20"/>
       <c r="B56" s="11"/>
       <c r="C56" s="5">
         <v>3</v>
@@ -1720,10 +1920,10 @@
       </c>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
+      <c r="I56" s="21"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="9"/>
+      <c r="A57" s="20"/>
       <c r="B57" s="12"/>
       <c r="C57" s="5">
         <v>4</v>
@@ -1739,10 +1939,10 @@
       </c>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
+      <c r="I57" s="21"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="9"/>
+      <c r="A58" s="20"/>
       <c r="B58" s="13" t="s">
         <v>11</v>
       </c>
@@ -1760,10 +1960,10 @@
       </c>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
+      <c r="I58" s="21"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="9"/>
+      <c r="A59" s="20"/>
       <c r="B59" s="11"/>
       <c r="C59" s="5">
         <v>2</v>
@@ -1779,10 +1979,10 @@
       </c>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
+      <c r="I59" s="21"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="9"/>
+      <c r="A60" s="20"/>
       <c r="B60" s="11"/>
       <c r="C60" s="5">
         <v>3</v>
@@ -1798,10 +1998,10 @@
       </c>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
+      <c r="I60" s="21"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="9"/>
+      <c r="A61" s="20"/>
       <c r="B61" s="12"/>
       <c r="C61" s="5">
         <v>4</v>
@@ -1817,10 +2017,10 @@
       </c>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
+      <c r="I61" s="21"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="9"/>
+      <c r="A62" s="20"/>
       <c r="B62" s="13" t="s">
         <v>13</v>
       </c>
@@ -1838,10 +2038,10 @@
       </c>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
+      <c r="I62" s="21"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="9"/>
+      <c r="A63" s="20"/>
       <c r="B63" s="11"/>
       <c r="C63" s="5">
         <v>2</v>
@@ -1857,10 +2057,10 @@
       </c>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
+      <c r="I63" s="21"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="9"/>
+      <c r="A64" s="20"/>
       <c r="B64" s="11"/>
       <c r="C64" s="5">
         <v>3</v>
@@ -1876,49 +2076,366 @@
       </c>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
+      <c r="I64" s="21"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="10"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="7">
+      <c r="A65" s="20"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="27">
         <v>4</v>
       </c>
-      <c r="D65" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E65" s="5">
-        <v>2</v>
-      </c>
-      <c r="F65" s="5">
-        <v>100</v>
-      </c>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
+      <c r="D65" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="27">
+        <v>2</v>
+      </c>
+      <c r="F65" s="27">
+        <v>100</v>
+      </c>
+      <c r="G65" s="28"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="32"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="15">
+        <v>5</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="17">
+        <v>1</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" s="17">
+        <v>25</v>
+      </c>
+      <c r="F66" s="17"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="19"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="20"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="5">
+        <v>2</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" s="5">
+        <v>6</v>
+      </c>
+      <c r="F67" s="5">
+        <v>100</v>
+      </c>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="21"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="20"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="5">
+        <v>3</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="5">
+        <v>6</v>
+      </c>
+      <c r="F68" s="5">
+        <v>100</v>
+      </c>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="21"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="20"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="5">
+        <v>4</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" s="5">
+        <v>6</v>
+      </c>
+      <c r="F69" s="5">
+        <v>100</v>
+      </c>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="21"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="20"/>
+      <c r="B70" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="5">
+        <v>1</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" s="5">
+        <v>6</v>
+      </c>
+      <c r="F70" s="5">
+        <v>100</v>
+      </c>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="21"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="20"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="5">
+        <v>2</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" s="5">
+        <v>6</v>
+      </c>
+      <c r="F71" s="5">
+        <v>100</v>
+      </c>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="21"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="20"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="5">
+        <v>3</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" s="5">
+        <v>6</v>
+      </c>
+      <c r="F72" s="5">
+        <v>100</v>
+      </c>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="21"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="20"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="5">
+        <v>4</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" s="5">
+        <v>6</v>
+      </c>
+      <c r="F73" s="5">
+        <v>100</v>
+      </c>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="21"/>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="20"/>
+      <c r="B74" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="5">
+        <v>1</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" s="5">
+        <v>6</v>
+      </c>
+      <c r="F74" s="5">
+        <v>100</v>
+      </c>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="21"/>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="20"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="5">
+        <v>2</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" s="5">
+        <v>6</v>
+      </c>
+      <c r="F75" s="5">
+        <v>100</v>
+      </c>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="21"/>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="20"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="5">
+        <v>3</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" s="5">
+        <v>6</v>
+      </c>
+      <c r="F76" s="5">
+        <v>100</v>
+      </c>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="21"/>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="20"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="5">
+        <v>4</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" s="5">
+        <v>6</v>
+      </c>
+      <c r="F77" s="5">
+        <v>100</v>
+      </c>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="21"/>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="20"/>
+      <c r="B78" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" s="5">
+        <v>1</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" s="5">
+        <v>6</v>
+      </c>
+      <c r="F78" s="5">
+        <v>100</v>
+      </c>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="21"/>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="20"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="5">
+        <v>2</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" s="5">
+        <v>6</v>
+      </c>
+      <c r="F79" s="5">
+        <v>100</v>
+      </c>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="21"/>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="20"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="5">
+        <v>3</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" s="5">
+        <v>6</v>
+      </c>
+      <c r="F80" s="5">
+        <v>100</v>
+      </c>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="21"/>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="22"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="24">
+        <v>4</v>
+      </c>
+      <c r="D81" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" s="24">
+        <v>6</v>
+      </c>
+      <c r="F81" s="24">
+        <v>100</v>
+      </c>
+      <c r="G81" s="25"/>
+      <c r="H81" s="25"/>
+      <c r="I81" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="25">
+    <mergeCell ref="A66:A81"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="A18:A33"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A50:A65"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="B62:B65"/>
     <mergeCell ref="A34:A49"/>
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="B38:B41"/>
     <mergeCell ref="B42:B45"/>
     <mergeCell ref="B46:B49"/>
-    <mergeCell ref="A50:A65"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A18:A33"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1926,24 +2443,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ApprovalRequested xmlns="b78d6d24-d6db-4d75-9c62-aa5d16939a2a" xsi:nil="true"/>
-    <ApprovedBy xmlns="b78d6d24-d6db-4d75-9c62-aa5d16939a2a">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </ApprovedBy>
-    <Comments xmlns="b78d6d24-d6db-4d75-9c62-aa5d16939a2a" xsi:nil="true"/>
-    <Approved_x003f_ xmlns="b78d6d24-d6db-4d75-9c62-aa5d16939a2a">false</Approved_x003f_>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b78d6d24-d6db-4d75-9c62-aa5d16939a2a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="029942aa-539e-4767-81e4-a62063a6e1cb" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2230,16 +2735,28 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ApprovalRequested xmlns="b78d6d24-d6db-4d75-9c62-aa5d16939a2a" xsi:nil="true"/>
+    <ApprovedBy xmlns="b78d6d24-d6db-4d75-9c62-aa5d16939a2a">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </ApprovedBy>
+    <Comments xmlns="b78d6d24-d6db-4d75-9c62-aa5d16939a2a" xsi:nil="true"/>
+    <Approved_x003f_ xmlns="b78d6d24-d6db-4d75-9c62-aa5d16939a2a">false</Approved_x003f_>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b78d6d24-d6db-4d75-9c62-aa5d16939a2a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="029942aa-539e-4767-81e4-a62063a6e1cb" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDD6B012-B9AC-4751-AE85-9BF9548DF2A7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C55BA5DB-FABC-42B8-A62D-4229D8279EF7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2247,5 +2764,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C55BA5DB-FABC-42B8-A62D-4229D8279EF7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDD6B012-B9AC-4751-AE85-9BF9548DF2A7}"/>
 </file>
--- a/Characterisation Data/Array Target Characterisation.xlsx
+++ b/Characterisation Data/Array Target Characterisation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26216"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stfc365.sharepoint.com/sites/TargetFabrication2/Shared Documents/1. Expt Planning/GTA 1022 Borghesi/3. Delivery/Characterisation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="11_FE310490A0B32A38BD8A12762798BD300347D4B6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA44A0E8-CF0C-417B-934F-C6F881036068}"/>
+  <xr:revisionPtr revIDLastSave="212" documentId="11_FE310490A0B32A38BD8A12762798BD300347D4B6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E24559A-F567-4CEC-BB79-57165D4B6D05}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="15">
   <si>
     <t>Array</t>
   </si>
@@ -394,45 +394,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -448,6 +415,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -824,10 +824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I81"/>
+  <dimension ref="A1:I289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:I81"/>
+    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
+      <selection activeCell="M270" sqref="M270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -871,10 +871,10 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="9">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="30">
+        <v>1</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="5">
@@ -888,8 +888,8 @@
       <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="9"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="5">
         <v>2</v>
       </c>
@@ -901,8 +901,8 @@
       <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="9"/>
-      <c r="B4" s="11"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="5">
         <v>3</v>
       </c>
@@ -914,8 +914,8 @@
       <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="9"/>
-      <c r="B5" s="12"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="5">
         <v>4</v>
       </c>
@@ -927,8 +927,8 @@
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="9"/>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="30"/>
+      <c r="B6" s="28" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="5">
@@ -942,8 +942,8 @@
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="9"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="5">
         <v>2</v>
       </c>
@@ -955,8 +955,8 @@
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="9"/>
-      <c r="B8" s="11"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="5">
         <v>3</v>
       </c>
@@ -968,8 +968,8 @@
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="9"/>
-      <c r="B9" s="12"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="5">
         <v>4</v>
       </c>
@@ -981,8 +981,8 @@
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="9"/>
-      <c r="B10" s="13" t="s">
+      <c r="A10" s="30"/>
+      <c r="B10" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="5">
@@ -996,8 +996,8 @@
       <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="9"/>
-      <c r="B11" s="11"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="5">
         <v>2</v>
       </c>
@@ -1015,8 +1015,8 @@
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="9"/>
-      <c r="B12" s="11"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="5">
         <v>3</v>
       </c>
@@ -1034,8 +1034,8 @@
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="9"/>
-      <c r="B13" s="12"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="5">
         <v>4</v>
       </c>
@@ -1053,8 +1053,8 @@
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="9"/>
-      <c r="B14" s="13" t="s">
+      <c r="A14" s="30"/>
+      <c r="B14" s="28" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="5">
@@ -1068,8 +1068,8 @@
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="9"/>
-      <c r="B15" s="11"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="5">
         <v>2</v>
       </c>
@@ -1087,8 +1087,8 @@
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="9"/>
-      <c r="B16" s="11"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="5">
         <v>3</v>
       </c>
@@ -1100,8 +1100,8 @@
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="10"/>
-      <c r="B17" s="14"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="7">
         <v>4</v>
       </c>
@@ -1113,10 +1113,10 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="9">
-        <v>2</v>
-      </c>
-      <c r="B18" s="11" t="s">
+      <c r="A18" s="30">
+        <v>2</v>
+      </c>
+      <c r="B18" s="26" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="5">
@@ -1138,8 +1138,8 @@
       <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="9"/>
-      <c r="B19" s="11"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="26"/>
       <c r="C19" s="5">
         <v>2</v>
       </c>
@@ -1159,8 +1159,8 @@
       <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="9"/>
-      <c r="B20" s="11"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="26"/>
       <c r="C20" s="5">
         <v>3</v>
       </c>
@@ -1180,8 +1180,8 @@
       <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="9"/>
-      <c r="B21" s="12"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="5">
         <v>4</v>
       </c>
@@ -1201,8 +1201,8 @@
       <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="9"/>
-      <c r="B22" s="13" t="s">
+      <c r="A22" s="30"/>
+      <c r="B22" s="28" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="5">
@@ -1224,8 +1224,8 @@
       <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="9"/>
-      <c r="B23" s="11"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="5">
         <v>2</v>
       </c>
@@ -1245,8 +1245,8 @@
       <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="9"/>
-      <c r="B24" s="11"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="26"/>
       <c r="C24" s="5">
         <v>3</v>
       </c>
@@ -1266,8 +1266,8 @@
       <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="9"/>
-      <c r="B25" s="12"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="27"/>
       <c r="C25" s="5">
         <v>4</v>
       </c>
@@ -1287,8 +1287,8 @@
       <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="9"/>
-      <c r="B26" s="13" t="s">
+      <c r="A26" s="30"/>
+      <c r="B26" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="5">
@@ -1310,8 +1310,8 @@
       <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="9"/>
-      <c r="B27" s="11"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="26"/>
       <c r="C27" s="5">
         <v>2</v>
       </c>
@@ -1331,8 +1331,8 @@
       <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="9"/>
-      <c r="B28" s="11"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="26"/>
       <c r="C28" s="5">
         <v>3</v>
       </c>
@@ -1352,8 +1352,8 @@
       <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="9"/>
-      <c r="B29" s="12"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="27"/>
       <c r="C29" s="5">
         <v>4</v>
       </c>
@@ -1373,8 +1373,8 @@
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="9"/>
-      <c r="B30" s="13" t="s">
+      <c r="A30" s="30"/>
+      <c r="B30" s="28" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="5">
@@ -1396,8 +1396,8 @@
       <c r="I30" s="6"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="9"/>
-      <c r="B31" s="11"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="5">
         <v>2</v>
       </c>
@@ -1417,8 +1417,8 @@
       <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="9"/>
-      <c r="B32" s="11"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="26"/>
       <c r="C32" s="5">
         <v>3</v>
       </c>
@@ -1438,50 +1438,50 @@
       <c r="I32" s="6"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="9"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="27">
-        <v>4</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="27">
+      <c r="A33" s="30"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="16">
+        <v>4</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="16">
         <f>6</f>
         <v>6</v>
       </c>
-      <c r="F33" s="27">
+      <c r="F33" s="16">
         <f>300</f>
         <v>300</v>
       </c>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="15">
-        <v>3</v>
-      </c>
-      <c r="B34" s="16" t="s">
+      <c r="A34" s="22">
+        <v>3</v>
+      </c>
+      <c r="B34" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="17">
-        <v>1</v>
-      </c>
-      <c r="D34" s="17" t="s">
+      <c r="C34" s="9">
+        <v>1</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="9">
         <v>25</v>
       </c>
-      <c r="F34" s="17"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="19"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="11"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="20"/>
-      <c r="B35" s="11"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="26"/>
       <c r="C35" s="5">
         <v>2</v>
       </c>
@@ -1497,11 +1497,11 @@
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
-      <c r="I35" s="21"/>
+      <c r="I35" s="12"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="20"/>
-      <c r="B36" s="11"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="26"/>
       <c r="C36" s="5">
         <v>3</v>
       </c>
@@ -1517,11 +1517,11 @@
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
-      <c r="I36" s="21"/>
+      <c r="I36" s="12"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="20"/>
-      <c r="B37" s="12"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="27"/>
       <c r="C37" s="5">
         <v>4</v>
       </c>
@@ -1537,11 +1537,11 @@
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
-      <c r="I37" s="21"/>
+      <c r="I37" s="12"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="20"/>
-      <c r="B38" s="13" t="s">
+      <c r="A38" s="23"/>
+      <c r="B38" s="28" t="s">
         <v>10</v>
       </c>
       <c r="C38" s="5">
@@ -1559,11 +1559,11 @@
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
-      <c r="I38" s="21"/>
+      <c r="I38" s="12"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="20"/>
-      <c r="B39" s="11"/>
+      <c r="A39" s="23"/>
+      <c r="B39" s="26"/>
       <c r="C39" s="5">
         <v>2</v>
       </c>
@@ -1579,11 +1579,11 @@
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
-      <c r="I39" s="21"/>
+      <c r="I39" s="12"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="20"/>
-      <c r="B40" s="11"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="26"/>
       <c r="C40" s="5">
         <v>3</v>
       </c>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
-      <c r="I40" s="21"/>
+      <c r="I40" s="12"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="20"/>
-      <c r="B41" s="12"/>
+      <c r="A41" s="23"/>
+      <c r="B41" s="27"/>
       <c r="C41" s="5">
         <v>4</v>
       </c>
@@ -1619,11 +1619,11 @@
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
-      <c r="I41" s="21"/>
+      <c r="I41" s="12"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="20"/>
-      <c r="B42" s="13" t="s">
+      <c r="A42" s="23"/>
+      <c r="B42" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C42" s="5">
@@ -1641,11 +1641,11 @@
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
-      <c r="I42" s="21"/>
+      <c r="I42" s="12"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="20"/>
-      <c r="B43" s="11"/>
+      <c r="A43" s="23"/>
+      <c r="B43" s="26"/>
       <c r="C43" s="5">
         <v>2</v>
       </c>
@@ -1661,11 +1661,11 @@
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
-      <c r="I43" s="21"/>
+      <c r="I43" s="12"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="20"/>
-      <c r="B44" s="11"/>
+      <c r="A44" s="23"/>
+      <c r="B44" s="26"/>
       <c r="C44" s="5">
         <v>3</v>
       </c>
@@ -1681,11 +1681,11 @@
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
-      <c r="I44" s="21"/>
+      <c r="I44" s="12"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="20"/>
-      <c r="B45" s="12"/>
+      <c r="A45" s="23"/>
+      <c r="B45" s="27"/>
       <c r="C45" s="5">
         <v>4</v>
       </c>
@@ -1701,11 +1701,11 @@
       </c>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
-      <c r="I45" s="21"/>
+      <c r="I45" s="12"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="20"/>
-      <c r="B46" s="13" t="s">
+      <c r="A46" s="23"/>
+      <c r="B46" s="28" t="s">
         <v>13</v>
       </c>
       <c r="C46" s="5">
@@ -1723,11 +1723,11 @@
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
-      <c r="I46" s="21"/>
+      <c r="I46" s="12"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="20"/>
-      <c r="B47" s="11"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="26"/>
       <c r="C47" s="5">
         <v>2</v>
       </c>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
-      <c r="I47" s="21"/>
+      <c r="I47" s="12"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="20"/>
-      <c r="B48" s="11"/>
+      <c r="A48" s="23"/>
+      <c r="B48" s="26"/>
       <c r="C48" s="5">
         <v>3</v>
       </c>
@@ -1763,52 +1763,52 @@
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
-      <c r="I48" s="21"/>
+      <c r="I48" s="12"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="22"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="24">
-        <v>4</v>
-      </c>
-      <c r="D49" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="24">
+      <c r="A49" s="24"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="13">
+        <v>4</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="13">
         <v>15</v>
       </c>
-      <c r="F49" s="24">
+      <c r="F49" s="13">
         <f>300</f>
         <v>300</v>
       </c>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="26"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="15"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="20">
-        <v>4</v>
-      </c>
-      <c r="B50" s="11" t="s">
+      <c r="A50" s="23">
+        <v>4</v>
+      </c>
+      <c r="B50" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C50" s="29">
-        <v>1</v>
-      </c>
-      <c r="D50" s="29" t="s">
+      <c r="C50" s="18">
+        <v>1</v>
+      </c>
+      <c r="D50" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E50" s="29">
+      <c r="E50" s="18">
         <v>25</v>
       </c>
-      <c r="F50" s="29"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="31"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="20"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="20"/>
-      <c r="B51" s="11"/>
+      <c r="A51" s="23"/>
+      <c r="B51" s="26"/>
       <c r="C51" s="5">
         <v>2</v>
       </c>
@@ -1823,11 +1823,11 @@
       </c>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
-      <c r="I51" s="21"/>
+      <c r="I51" s="12"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="20"/>
-      <c r="B52" s="11"/>
+      <c r="A52" s="23"/>
+      <c r="B52" s="26"/>
       <c r="C52" s="5">
         <v>3</v>
       </c>
@@ -1842,11 +1842,11 @@
       </c>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
-      <c r="I52" s="21"/>
+      <c r="I52" s="12"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="20"/>
-      <c r="B53" s="12"/>
+      <c r="A53" s="23"/>
+      <c r="B53" s="27"/>
       <c r="C53" s="5">
         <v>4</v>
       </c>
@@ -1861,11 +1861,11 @@
       </c>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
-      <c r="I53" s="21"/>
+      <c r="I53" s="12"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="20"/>
-      <c r="B54" s="13" t="s">
+      <c r="A54" s="23"/>
+      <c r="B54" s="28" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="5">
@@ -1882,11 +1882,11 @@
       </c>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
-      <c r="I54" s="21"/>
+      <c r="I54" s="12"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="20"/>
-      <c r="B55" s="11"/>
+      <c r="A55" s="23"/>
+      <c r="B55" s="26"/>
       <c r="C55" s="5">
         <v>2</v>
       </c>
@@ -1901,11 +1901,11 @@
       </c>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
-      <c r="I55" s="21"/>
+      <c r="I55" s="12"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="20"/>
-      <c r="B56" s="11"/>
+      <c r="A56" s="23"/>
+      <c r="B56" s="26"/>
       <c r="C56" s="5">
         <v>3</v>
       </c>
@@ -1920,11 +1920,11 @@
       </c>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
-      <c r="I56" s="21"/>
+      <c r="I56" s="12"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="20"/>
-      <c r="B57" s="12"/>
+      <c r="A57" s="23"/>
+      <c r="B57" s="27"/>
       <c r="C57" s="5">
         <v>4</v>
       </c>
@@ -1939,11 +1939,11 @@
       </c>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
-      <c r="I57" s="21"/>
+      <c r="I57" s="12"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="20"/>
-      <c r="B58" s="13" t="s">
+      <c r="A58" s="23"/>
+      <c r="B58" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C58" s="5">
@@ -1960,11 +1960,11 @@
       </c>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
-      <c r="I58" s="21"/>
+      <c r="I58" s="12"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="20"/>
-      <c r="B59" s="11"/>
+      <c r="A59" s="23"/>
+      <c r="B59" s="26"/>
       <c r="C59" s="5">
         <v>2</v>
       </c>
@@ -1979,11 +1979,11 @@
       </c>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
-      <c r="I59" s="21"/>
+      <c r="I59" s="12"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="20"/>
-      <c r="B60" s="11"/>
+      <c r="A60" s="23"/>
+      <c r="B60" s="26"/>
       <c r="C60" s="5">
         <v>3</v>
       </c>
@@ -1998,11 +1998,11 @@
       </c>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
-      <c r="I60" s="21"/>
+      <c r="I60" s="12"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="20"/>
-      <c r="B61" s="12"/>
+      <c r="A61" s="23"/>
+      <c r="B61" s="27"/>
       <c r="C61" s="5">
         <v>4</v>
       </c>
@@ -2017,11 +2017,11 @@
       </c>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
-      <c r="I61" s="21"/>
+      <c r="I61" s="12"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="20"/>
-      <c r="B62" s="13" t="s">
+      <c r="A62" s="23"/>
+      <c r="B62" s="28" t="s">
         <v>13</v>
       </c>
       <c r="C62" s="5">
@@ -2038,11 +2038,11 @@
       </c>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
-      <c r="I62" s="21"/>
+      <c r="I62" s="12"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="20"/>
-      <c r="B63" s="11"/>
+      <c r="A63" s="23"/>
+      <c r="B63" s="26"/>
       <c r="C63" s="5">
         <v>2</v>
       </c>
@@ -2057,11 +2057,11 @@
       </c>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
-      <c r="I63" s="21"/>
+      <c r="I63" s="12"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="20"/>
-      <c r="B64" s="11"/>
+      <c r="A64" s="23"/>
+      <c r="B64" s="26"/>
       <c r="C64" s="5">
         <v>3</v>
       </c>
@@ -2076,51 +2076,51 @@
       </c>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
-      <c r="I64" s="21"/>
+      <c r="I64" s="12"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="20"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="27">
-        <v>4</v>
-      </c>
-      <c r="D65" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E65" s="27">
-        <v>2</v>
-      </c>
-      <c r="F65" s="27">
+      <c r="A65" s="23"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="16">
+        <v>4</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="16">
+        <v>2</v>
+      </c>
+      <c r="F65" s="16">
         <v>100</v>
       </c>
-      <c r="G65" s="28"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="32"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="21"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="15">
-        <v>5</v>
-      </c>
-      <c r="B66" s="16" t="s">
+      <c r="A66" s="22">
+        <v>5</v>
+      </c>
+      <c r="B66" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C66" s="17">
-        <v>1</v>
-      </c>
-      <c r="D66" s="17" t="s">
+      <c r="C66" s="9">
+        <v>1</v>
+      </c>
+      <c r="D66" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E66" s="17">
+      <c r="E66" s="9">
         <v>25</v>
       </c>
-      <c r="F66" s="17"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="19"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="11"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="20"/>
-      <c r="B67" s="11"/>
+      <c r="A67" s="23"/>
+      <c r="B67" s="26"/>
       <c r="C67" s="5">
         <v>2</v>
       </c>
@@ -2135,11 +2135,11 @@
       </c>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
-      <c r="I67" s="21"/>
+      <c r="I67" s="12"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="20"/>
-      <c r="B68" s="11"/>
+      <c r="A68" s="23"/>
+      <c r="B68" s="26"/>
       <c r="C68" s="5">
         <v>3</v>
       </c>
@@ -2154,11 +2154,11 @@
       </c>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
-      <c r="I68" s="21"/>
+      <c r="I68" s="12"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="20"/>
-      <c r="B69" s="12"/>
+      <c r="A69" s="23"/>
+      <c r="B69" s="27"/>
       <c r="C69" s="5">
         <v>4</v>
       </c>
@@ -2173,11 +2173,11 @@
       </c>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
-      <c r="I69" s="21"/>
+      <c r="I69" s="12"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="20"/>
-      <c r="B70" s="13" t="s">
+      <c r="A70" s="23"/>
+      <c r="B70" s="28" t="s">
         <v>10</v>
       </c>
       <c r="C70" s="5">
@@ -2194,11 +2194,11 @@
       </c>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
-      <c r="I70" s="21"/>
+      <c r="I70" s="12"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="20"/>
-      <c r="B71" s="11"/>
+      <c r="A71" s="23"/>
+      <c r="B71" s="26"/>
       <c r="C71" s="5">
         <v>2</v>
       </c>
@@ -2213,11 +2213,11 @@
       </c>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
-      <c r="I71" s="21"/>
+      <c r="I71" s="12"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="20"/>
-      <c r="B72" s="11"/>
+      <c r="A72" s="23"/>
+      <c r="B72" s="26"/>
       <c r="C72" s="5">
         <v>3</v>
       </c>
@@ -2232,11 +2232,11 @@
       </c>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
-      <c r="I72" s="21"/>
+      <c r="I72" s="12"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="20"/>
-      <c r="B73" s="12"/>
+      <c r="A73" s="23"/>
+      <c r="B73" s="27"/>
       <c r="C73" s="5">
         <v>4</v>
       </c>
@@ -2251,11 +2251,11 @@
       </c>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
-      <c r="I73" s="21"/>
+      <c r="I73" s="12"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="20"/>
-      <c r="B74" s="13" t="s">
+      <c r="A74" s="23"/>
+      <c r="B74" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C74" s="5">
@@ -2272,11 +2272,11 @@
       </c>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
-      <c r="I74" s="21"/>
+      <c r="I74" s="12"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="20"/>
-      <c r="B75" s="11"/>
+      <c r="A75" s="23"/>
+      <c r="B75" s="26"/>
       <c r="C75" s="5">
         <v>2</v>
       </c>
@@ -2291,11 +2291,11 @@
       </c>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
-      <c r="I75" s="21"/>
+      <c r="I75" s="12"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="20"/>
-      <c r="B76" s="11"/>
+      <c r="A76" s="23"/>
+      <c r="B76" s="26"/>
       <c r="C76" s="5">
         <v>3</v>
       </c>
@@ -2310,11 +2310,11 @@
       </c>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
-      <c r="I76" s="21"/>
+      <c r="I76" s="12"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="20"/>
-      <c r="B77" s="12"/>
+      <c r="A77" s="23"/>
+      <c r="B77" s="27"/>
       <c r="C77" s="5">
         <v>4</v>
       </c>
@@ -2329,11 +2329,11 @@
       </c>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
-      <c r="I77" s="21"/>
+      <c r="I77" s="12"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="20"/>
-      <c r="B78" s="13" t="s">
+      <c r="A78" s="23"/>
+      <c r="B78" s="28" t="s">
         <v>13</v>
       </c>
       <c r="C78" s="5">
@@ -2350,11 +2350,11 @@
       </c>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
-      <c r="I78" s="21"/>
+      <c r="I78" s="12"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="20"/>
-      <c r="B79" s="11"/>
+      <c r="A79" s="23"/>
+      <c r="B79" s="26"/>
       <c r="C79" s="5">
         <v>2</v>
       </c>
@@ -2369,11 +2369,11 @@
       </c>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
-      <c r="I79" s="21"/>
+      <c r="I79" s="12"/>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="20"/>
-      <c r="B80" s="11"/>
+      <c r="A80" s="23"/>
+      <c r="B80" s="26"/>
       <c r="C80" s="5">
         <v>3</v>
       </c>
@@ -2388,29 +2388,4095 @@
       </c>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
-      <c r="I80" s="21"/>
+      <c r="I80" s="12"/>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="22"/>
-      <c r="B81" s="23"/>
-      <c r="C81" s="24">
-        <v>4</v>
-      </c>
-      <c r="D81" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E81" s="24">
+      <c r="A81" s="24"/>
+      <c r="B81" s="29"/>
+      <c r="C81" s="13">
+        <v>4</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" s="13">
         <v>6</v>
       </c>
-      <c r="F81" s="24">
+      <c r="F81" s="13">
         <v>100</v>
       </c>
-      <c r="G81" s="25"/>
-      <c r="H81" s="25"/>
-      <c r="I81" s="26"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="15"/>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="22">
+        <v>6</v>
+      </c>
+      <c r="B82" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="9">
+        <v>1</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E82" s="9">
+        <v>25</v>
+      </c>
+      <c r="F82" s="9"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="11"/>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="23"/>
+      <c r="B83" s="26"/>
+      <c r="C83" s="5">
+        <v>2</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" s="5">
+        <v>1</v>
+      </c>
+      <c r="F83" s="5">
+        <v>100</v>
+      </c>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="12"/>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="23"/>
+      <c r="B84" s="26"/>
+      <c r="C84" s="5">
+        <v>3</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84" s="5">
+        <v>1</v>
+      </c>
+      <c r="F84" s="5">
+        <v>100</v>
+      </c>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="12"/>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="23"/>
+      <c r="B85" s="27"/>
+      <c r="C85" s="5">
+        <v>4</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85" s="5">
+        <v>1</v>
+      </c>
+      <c r="F85" s="5">
+        <v>100</v>
+      </c>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="12"/>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="23"/>
+      <c r="B86" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86" s="5">
+        <v>1</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" s="5">
+        <v>1</v>
+      </c>
+      <c r="F86" s="5">
+        <v>100</v>
+      </c>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="12"/>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="23"/>
+      <c r="B87" s="26"/>
+      <c r="C87" s="5">
+        <v>2</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" s="5">
+        <v>1</v>
+      </c>
+      <c r="F87" s="5">
+        <v>100</v>
+      </c>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="12"/>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="23"/>
+      <c r="B88" s="26"/>
+      <c r="C88" s="5">
+        <v>3</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" s="5">
+        <v>1</v>
+      </c>
+      <c r="F88" s="5">
+        <v>100</v>
+      </c>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="12"/>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="23"/>
+      <c r="B89" s="27"/>
+      <c r="C89" s="5">
+        <v>4</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" s="5">
+        <v>1</v>
+      </c>
+      <c r="F89" s="5">
+        <v>100</v>
+      </c>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="12"/>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="23"/>
+      <c r="B90" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" s="5">
+        <v>1</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90" s="5">
+        <v>1</v>
+      </c>
+      <c r="F90" s="5">
+        <v>100</v>
+      </c>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="12"/>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="23"/>
+      <c r="B91" s="26"/>
+      <c r="C91" s="5">
+        <v>2</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91" s="5">
+        <v>1</v>
+      </c>
+      <c r="F91" s="5">
+        <v>100</v>
+      </c>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="12"/>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="23"/>
+      <c r="B92" s="26"/>
+      <c r="C92" s="5">
+        <v>3</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E92" s="5">
+        <v>1</v>
+      </c>
+      <c r="F92" s="5">
+        <v>100</v>
+      </c>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="12"/>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="23"/>
+      <c r="B93" s="27"/>
+      <c r="C93" s="5">
+        <v>4</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" s="5">
+        <v>1</v>
+      </c>
+      <c r="F93" s="5">
+        <v>100</v>
+      </c>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="12"/>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="23"/>
+      <c r="B94" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94" s="5">
+        <v>1</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94" s="5">
+        <v>1</v>
+      </c>
+      <c r="F94" s="5">
+        <v>100</v>
+      </c>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="12"/>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="23"/>
+      <c r="B95" s="26"/>
+      <c r="C95" s="5">
+        <v>2</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95" s="5">
+        <v>1</v>
+      </c>
+      <c r="F95" s="5">
+        <v>100</v>
+      </c>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="12"/>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="23"/>
+      <c r="B96" s="26"/>
+      <c r="C96" s="5">
+        <v>3</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" s="5">
+        <v>1</v>
+      </c>
+      <c r="F96" s="5">
+        <v>100</v>
+      </c>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="12"/>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="24"/>
+      <c r="B97" s="29"/>
+      <c r="C97" s="13">
+        <v>4</v>
+      </c>
+      <c r="D97" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E97" s="13">
+        <v>1</v>
+      </c>
+      <c r="F97" s="13">
+        <v>100</v>
+      </c>
+      <c r="G97" s="14"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="15"/>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="22">
+        <v>7</v>
+      </c>
+      <c r="B98" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" s="9">
+        <v>1</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98" s="9">
+        <v>25</v>
+      </c>
+      <c r="F98" s="9"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="10"/>
+      <c r="I98" s="11"/>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="23"/>
+      <c r="B99" s="26"/>
+      <c r="C99" s="5">
+        <v>2</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99" s="5">
+        <v>1</v>
+      </c>
+      <c r="F99" s="5">
+        <v>300</v>
+      </c>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="12"/>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="23"/>
+      <c r="B100" s="26"/>
+      <c r="C100" s="5">
+        <v>3</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E100" s="5">
+        <v>1</v>
+      </c>
+      <c r="F100" s="5">
+        <v>300</v>
+      </c>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="12"/>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="23"/>
+      <c r="B101" s="27"/>
+      <c r="C101" s="5">
+        <v>4</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E101" s="5">
+        <v>1</v>
+      </c>
+      <c r="F101" s="5">
+        <v>300</v>
+      </c>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="12"/>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="23"/>
+      <c r="B102" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102" s="5">
+        <v>1</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102" s="5">
+        <v>1</v>
+      </c>
+      <c r="F102" s="5">
+        <v>300</v>
+      </c>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="12"/>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="23"/>
+      <c r="B103" s="26"/>
+      <c r="C103" s="5">
+        <v>2</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E103" s="5">
+        <v>1</v>
+      </c>
+      <c r="F103" s="5">
+        <v>300</v>
+      </c>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="12"/>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="23"/>
+      <c r="B104" s="26"/>
+      <c r="C104" s="5">
+        <v>3</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104" s="5">
+        <v>1</v>
+      </c>
+      <c r="F104" s="5">
+        <v>300</v>
+      </c>
+      <c r="G104" s="6"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="12"/>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="23"/>
+      <c r="B105" s="27"/>
+      <c r="C105" s="5">
+        <v>4</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105" s="5">
+        <v>1</v>
+      </c>
+      <c r="F105" s="5">
+        <v>300</v>
+      </c>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="12"/>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="23"/>
+      <c r="B106" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106" s="5">
+        <v>1</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E106" s="5">
+        <v>1</v>
+      </c>
+      <c r="F106" s="5">
+        <v>300</v>
+      </c>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="12"/>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="23"/>
+      <c r="B107" s="26"/>
+      <c r="C107" s="5">
+        <v>2</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E107" s="5">
+        <v>1</v>
+      </c>
+      <c r="F107" s="5">
+        <v>300</v>
+      </c>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
+      <c r="I107" s="12"/>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="23"/>
+      <c r="B108" s="26"/>
+      <c r="C108" s="5">
+        <v>3</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E108" s="5">
+        <v>1</v>
+      </c>
+      <c r="F108" s="5">
+        <v>300</v>
+      </c>
+      <c r="G108" s="6"/>
+      <c r="H108" s="6"/>
+      <c r="I108" s="12"/>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="23"/>
+      <c r="B109" s="27"/>
+      <c r="C109" s="5">
+        <v>4</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E109" s="5">
+        <v>1</v>
+      </c>
+      <c r="F109" s="5">
+        <v>300</v>
+      </c>
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
+      <c r="I109" s="12"/>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="23"/>
+      <c r="B110" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C110" s="5">
+        <v>1</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110" s="5">
+        <v>1</v>
+      </c>
+      <c r="F110" s="5">
+        <v>300</v>
+      </c>
+      <c r="G110" s="6"/>
+      <c r="H110" s="6"/>
+      <c r="I110" s="12"/>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="23"/>
+      <c r="B111" s="26"/>
+      <c r="C111" s="5">
+        <v>2</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E111" s="5">
+        <v>1</v>
+      </c>
+      <c r="F111" s="5">
+        <v>300</v>
+      </c>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="12"/>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="23"/>
+      <c r="B112" s="26"/>
+      <c r="C112" s="5">
+        <v>3</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E112" s="5">
+        <v>1</v>
+      </c>
+      <c r="F112" s="5">
+        <v>300</v>
+      </c>
+      <c r="G112" s="6"/>
+      <c r="H112" s="6"/>
+      <c r="I112" s="12"/>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="24"/>
+      <c r="B113" s="29"/>
+      <c r="C113" s="13">
+        <v>4</v>
+      </c>
+      <c r="D113" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E113" s="13">
+        <v>1</v>
+      </c>
+      <c r="F113" s="13">
+        <v>300</v>
+      </c>
+      <c r="G113" s="14"/>
+      <c r="H113" s="14"/>
+      <c r="I113" s="15"/>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="22">
+        <v>8</v>
+      </c>
+      <c r="B114" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" s="9">
+        <v>1</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E114" s="9">
+        <v>25</v>
+      </c>
+      <c r="F114" s="9"/>
+      <c r="G114" s="10"/>
+      <c r="H114" s="10"/>
+      <c r="I114" s="11"/>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="23"/>
+      <c r="B115" s="26"/>
+      <c r="C115" s="5">
+        <v>2</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115" s="5">
+        <v>2</v>
+      </c>
+      <c r="F115" s="5">
+        <v>300</v>
+      </c>
+      <c r="G115" s="6"/>
+      <c r="H115" s="6"/>
+      <c r="I115" s="12"/>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="23"/>
+      <c r="B116" s="26"/>
+      <c r="C116" s="5">
+        <v>3</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E116" s="5">
+        <v>2</v>
+      </c>
+      <c r="F116" s="5">
+        <v>300</v>
+      </c>
+      <c r="G116" s="6"/>
+      <c r="H116" s="6"/>
+      <c r="I116" s="12"/>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="23"/>
+      <c r="B117" s="27"/>
+      <c r="C117" s="5">
+        <v>4</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E117" s="5">
+        <v>2</v>
+      </c>
+      <c r="F117" s="5">
+        <v>300</v>
+      </c>
+      <c r="G117" s="6"/>
+      <c r="H117" s="6"/>
+      <c r="I117" s="12"/>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="23"/>
+      <c r="B118" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C118" s="5">
+        <v>1</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E118" s="5">
+        <v>2</v>
+      </c>
+      <c r="F118" s="5">
+        <v>300</v>
+      </c>
+      <c r="G118" s="6"/>
+      <c r="H118" s="6"/>
+      <c r="I118" s="12"/>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="23"/>
+      <c r="B119" s="26"/>
+      <c r="C119" s="5">
+        <v>2</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E119" s="5">
+        <v>2</v>
+      </c>
+      <c r="F119" s="5">
+        <v>300</v>
+      </c>
+      <c r="G119" s="6"/>
+      <c r="H119" s="6"/>
+      <c r="I119" s="12"/>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="23"/>
+      <c r="B120" s="26"/>
+      <c r="C120" s="5">
+        <v>3</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E120" s="5">
+        <v>2</v>
+      </c>
+      <c r="F120" s="5">
+        <v>300</v>
+      </c>
+      <c r="G120" s="6"/>
+      <c r="H120" s="6"/>
+      <c r="I120" s="12"/>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="23"/>
+      <c r="B121" s="27"/>
+      <c r="C121" s="5">
+        <v>4</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E121" s="5">
+        <v>2</v>
+      </c>
+      <c r="F121" s="5">
+        <v>300</v>
+      </c>
+      <c r="G121" s="6"/>
+      <c r="H121" s="6"/>
+      <c r="I121" s="12"/>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="23"/>
+      <c r="B122" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" s="5">
+        <v>1</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E122" s="5">
+        <v>2</v>
+      </c>
+      <c r="F122" s="5">
+        <v>300</v>
+      </c>
+      <c r="G122" s="6"/>
+      <c r="H122" s="6"/>
+      <c r="I122" s="12"/>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="23"/>
+      <c r="B123" s="26"/>
+      <c r="C123" s="5">
+        <v>2</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E123" s="5">
+        <v>2</v>
+      </c>
+      <c r="F123" s="5">
+        <v>300</v>
+      </c>
+      <c r="G123" s="6"/>
+      <c r="H123" s="6"/>
+      <c r="I123" s="12"/>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="23"/>
+      <c r="B124" s="26"/>
+      <c r="C124" s="5">
+        <v>3</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E124" s="5">
+        <v>2</v>
+      </c>
+      <c r="F124" s="5">
+        <v>300</v>
+      </c>
+      <c r="G124" s="6"/>
+      <c r="H124" s="6"/>
+      <c r="I124" s="12"/>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="23"/>
+      <c r="B125" s="27"/>
+      <c r="C125" s="5">
+        <v>4</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E125" s="5">
+        <v>2</v>
+      </c>
+      <c r="F125" s="5">
+        <v>300</v>
+      </c>
+      <c r="G125" s="6"/>
+      <c r="H125" s="6"/>
+      <c r="I125" s="12"/>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="23"/>
+      <c r="B126" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C126" s="5">
+        <v>1</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E126" s="5">
+        <v>2</v>
+      </c>
+      <c r="F126" s="5">
+        <v>300</v>
+      </c>
+      <c r="G126" s="6"/>
+      <c r="H126" s="6"/>
+      <c r="I126" s="12"/>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="23"/>
+      <c r="B127" s="26"/>
+      <c r="C127" s="5">
+        <v>2</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E127" s="5">
+        <v>2</v>
+      </c>
+      <c r="F127" s="5">
+        <v>300</v>
+      </c>
+      <c r="G127" s="6"/>
+      <c r="H127" s="6"/>
+      <c r="I127" s="12"/>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="23"/>
+      <c r="B128" s="26"/>
+      <c r="C128" s="5">
+        <v>3</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E128" s="5">
+        <v>2</v>
+      </c>
+      <c r="F128" s="5">
+        <v>300</v>
+      </c>
+      <c r="G128" s="6"/>
+      <c r="H128" s="6"/>
+      <c r="I128" s="12"/>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="24"/>
+      <c r="B129" s="29"/>
+      <c r="C129" s="13">
+        <v>4</v>
+      </c>
+      <c r="D129" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E129" s="13">
+        <v>2</v>
+      </c>
+      <c r="F129" s="13">
+        <v>300</v>
+      </c>
+      <c r="G129" s="14"/>
+      <c r="H129" s="14"/>
+      <c r="I129" s="15"/>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="22">
+        <v>9</v>
+      </c>
+      <c r="B130" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C130" s="9">
+        <v>1</v>
+      </c>
+      <c r="D130" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E130" s="9">
+        <v>5</v>
+      </c>
+      <c r="F130" s="9">
+        <v>250</v>
+      </c>
+      <c r="G130" s="10"/>
+      <c r="H130" s="10"/>
+      <c r="I130" s="11"/>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="23"/>
+      <c r="B131" s="26"/>
+      <c r="C131" s="5">
+        <v>2</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E131" s="9">
+        <v>5</v>
+      </c>
+      <c r="F131" s="9">
+        <v>250</v>
+      </c>
+      <c r="G131" s="6"/>
+      <c r="H131" s="6"/>
+      <c r="I131" s="12"/>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="23"/>
+      <c r="B132" s="26"/>
+      <c r="C132" s="5">
+        <v>3</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E132" s="9">
+        <v>5</v>
+      </c>
+      <c r="F132" s="9">
+        <v>250</v>
+      </c>
+      <c r="G132" s="6"/>
+      <c r="H132" s="6"/>
+      <c r="I132" s="12"/>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="23"/>
+      <c r="B133" s="27"/>
+      <c r="C133" s="5">
+        <v>4</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E133" s="9">
+        <v>5</v>
+      </c>
+      <c r="F133" s="9">
+        <v>250</v>
+      </c>
+      <c r="G133" s="6"/>
+      <c r="H133" s="6"/>
+      <c r="I133" s="12"/>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="23"/>
+      <c r="B134" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C134" s="5">
+        <v>1</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E134" s="9">
+        <v>5</v>
+      </c>
+      <c r="F134" s="9">
+        <v>250</v>
+      </c>
+      <c r="G134" s="6"/>
+      <c r="H134" s="6"/>
+      <c r="I134" s="12"/>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" s="23"/>
+      <c r="B135" s="26"/>
+      <c r="C135" s="5">
+        <v>2</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E135" s="9">
+        <v>5</v>
+      </c>
+      <c r="F135" s="9">
+        <v>250</v>
+      </c>
+      <c r="G135" s="6"/>
+      <c r="H135" s="6"/>
+      <c r="I135" s="12"/>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" s="23"/>
+      <c r="B136" s="26"/>
+      <c r="C136" s="5">
+        <v>3</v>
+      </c>
+      <c r="D136" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E136" s="9">
+        <v>5</v>
+      </c>
+      <c r="F136" s="9">
+        <v>250</v>
+      </c>
+      <c r="G136" s="6"/>
+      <c r="H136" s="6"/>
+      <c r="I136" s="12"/>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="23"/>
+      <c r="B137" s="27"/>
+      <c r="C137" s="5">
+        <v>4</v>
+      </c>
+      <c r="D137" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E137" s="9">
+        <v>5</v>
+      </c>
+      <c r="F137" s="9">
+        <v>250</v>
+      </c>
+      <c r="G137" s="6"/>
+      <c r="H137" s="6"/>
+      <c r="I137" s="12"/>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="23"/>
+      <c r="B138" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" s="5">
+        <v>1</v>
+      </c>
+      <c r="D138" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E138" s="9">
+        <v>5</v>
+      </c>
+      <c r="F138" s="9">
+        <v>250</v>
+      </c>
+      <c r="G138" s="6"/>
+      <c r="H138" s="6"/>
+      <c r="I138" s="12"/>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" s="23"/>
+      <c r="B139" s="26"/>
+      <c r="C139" s="5">
+        <v>2</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E139" s="9">
+        <v>5</v>
+      </c>
+      <c r="F139" s="9">
+        <v>250</v>
+      </c>
+      <c r="G139" s="6"/>
+      <c r="H139" s="6"/>
+      <c r="I139" s="12"/>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="23"/>
+      <c r="B140" s="26"/>
+      <c r="C140" s="5">
+        <v>3</v>
+      </c>
+      <c r="D140" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E140" s="9">
+        <v>5</v>
+      </c>
+      <c r="F140" s="9">
+        <v>250</v>
+      </c>
+      <c r="G140" s="6"/>
+      <c r="H140" s="6"/>
+      <c r="I140" s="12"/>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="23"/>
+      <c r="B141" s="27"/>
+      <c r="C141" s="5">
+        <v>4</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E141" s="9">
+        <v>5</v>
+      </c>
+      <c r="F141" s="9">
+        <v>250</v>
+      </c>
+      <c r="G141" s="6"/>
+      <c r="H141" s="6"/>
+      <c r="I141" s="12"/>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" s="23"/>
+      <c r="B142" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C142" s="5">
+        <v>1</v>
+      </c>
+      <c r="D142" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E142" s="9">
+        <v>5</v>
+      </c>
+      <c r="F142" s="9">
+        <v>250</v>
+      </c>
+      <c r="G142" s="6"/>
+      <c r="H142" s="6"/>
+      <c r="I142" s="12"/>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" s="23"/>
+      <c r="B143" s="26"/>
+      <c r="C143" s="5">
+        <v>2</v>
+      </c>
+      <c r="D143" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E143" s="9">
+        <v>5</v>
+      </c>
+      <c r="F143" s="9">
+        <v>250</v>
+      </c>
+      <c r="G143" s="6"/>
+      <c r="H143" s="6"/>
+      <c r="I143" s="12"/>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" s="23"/>
+      <c r="B144" s="26"/>
+      <c r="C144" s="5">
+        <v>3</v>
+      </c>
+      <c r="D144" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E144" s="9">
+        <v>5</v>
+      </c>
+      <c r="F144" s="9">
+        <v>250</v>
+      </c>
+      <c r="G144" s="6"/>
+      <c r="H144" s="6"/>
+      <c r="I144" s="12"/>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" s="24"/>
+      <c r="B145" s="29"/>
+      <c r="C145" s="13">
+        <v>4</v>
+      </c>
+      <c r="D145" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E145" s="9">
+        <v>5</v>
+      </c>
+      <c r="F145" s="9">
+        <v>250</v>
+      </c>
+      <c r="G145" s="14"/>
+      <c r="H145" s="14"/>
+      <c r="I145" s="15"/>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="22">
+        <v>10</v>
+      </c>
+      <c r="B146" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C146" s="9">
+        <v>1</v>
+      </c>
+      <c r="D146" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E146" s="9">
+        <v>5</v>
+      </c>
+      <c r="F146" s="9">
+        <v>250</v>
+      </c>
+      <c r="G146" s="10"/>
+      <c r="H146" s="10"/>
+      <c r="I146" s="11"/>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" s="23"/>
+      <c r="B147" s="26"/>
+      <c r="C147" s="5">
+        <v>2</v>
+      </c>
+      <c r="D147" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E147" s="9">
+        <v>5</v>
+      </c>
+      <c r="F147" s="9">
+        <v>250</v>
+      </c>
+      <c r="G147" s="6"/>
+      <c r="H147" s="6"/>
+      <c r="I147" s="12"/>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" s="23"/>
+      <c r="B148" s="26"/>
+      <c r="C148" s="5">
+        <v>3</v>
+      </c>
+      <c r="D148" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E148" s="9">
+        <v>5</v>
+      </c>
+      <c r="F148" s="9">
+        <v>250</v>
+      </c>
+      <c r="G148" s="6"/>
+      <c r="H148" s="6"/>
+      <c r="I148" s="12"/>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" s="23"/>
+      <c r="B149" s="27"/>
+      <c r="C149" s="5">
+        <v>4</v>
+      </c>
+      <c r="D149" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E149" s="9">
+        <v>5</v>
+      </c>
+      <c r="F149" s="9">
+        <v>250</v>
+      </c>
+      <c r="G149" s="6"/>
+      <c r="H149" s="6"/>
+      <c r="I149" s="12"/>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" s="23"/>
+      <c r="B150" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C150" s="5">
+        <v>1</v>
+      </c>
+      <c r="D150" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E150" s="9">
+        <v>5</v>
+      </c>
+      <c r="F150" s="9">
+        <v>250</v>
+      </c>
+      <c r="G150" s="6"/>
+      <c r="H150" s="6"/>
+      <c r="I150" s="12"/>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" s="23"/>
+      <c r="B151" s="26"/>
+      <c r="C151" s="5">
+        <v>2</v>
+      </c>
+      <c r="D151" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E151" s="9">
+        <v>5</v>
+      </c>
+      <c r="F151" s="9">
+        <v>250</v>
+      </c>
+      <c r="G151" s="6"/>
+      <c r="H151" s="6"/>
+      <c r="I151" s="12"/>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" s="23"/>
+      <c r="B152" s="26"/>
+      <c r="C152" s="5">
+        <v>3</v>
+      </c>
+      <c r="D152" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E152" s="9">
+        <v>5</v>
+      </c>
+      <c r="F152" s="9">
+        <v>250</v>
+      </c>
+      <c r="G152" s="6"/>
+      <c r="H152" s="6"/>
+      <c r="I152" s="12"/>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" s="23"/>
+      <c r="B153" s="27"/>
+      <c r="C153" s="5">
+        <v>4</v>
+      </c>
+      <c r="D153" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E153" s="9">
+        <v>5</v>
+      </c>
+      <c r="F153" s="9">
+        <v>250</v>
+      </c>
+      <c r="G153" s="6"/>
+      <c r="H153" s="6"/>
+      <c r="I153" s="12"/>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" s="23"/>
+      <c r="B154" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C154" s="5">
+        <v>1</v>
+      </c>
+      <c r="D154" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E154" s="9">
+        <v>5</v>
+      </c>
+      <c r="F154" s="9">
+        <v>250</v>
+      </c>
+      <c r="G154" s="6"/>
+      <c r="H154" s="6"/>
+      <c r="I154" s="12"/>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" s="23"/>
+      <c r="B155" s="26"/>
+      <c r="C155" s="5">
+        <v>2</v>
+      </c>
+      <c r="D155" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E155" s="9">
+        <v>5</v>
+      </c>
+      <c r="F155" s="9">
+        <v>250</v>
+      </c>
+      <c r="G155" s="6"/>
+      <c r="H155" s="6"/>
+      <c r="I155" s="12"/>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" s="23"/>
+      <c r="B156" s="26"/>
+      <c r="C156" s="5">
+        <v>3</v>
+      </c>
+      <c r="D156" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E156" s="9">
+        <v>5</v>
+      </c>
+      <c r="F156" s="9">
+        <v>250</v>
+      </c>
+      <c r="G156" s="6"/>
+      <c r="H156" s="6"/>
+      <c r="I156" s="12"/>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" s="23"/>
+      <c r="B157" s="27"/>
+      <c r="C157" s="5">
+        <v>4</v>
+      </c>
+      <c r="D157" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E157" s="9">
+        <v>5</v>
+      </c>
+      <c r="F157" s="9">
+        <v>250</v>
+      </c>
+      <c r="G157" s="6"/>
+      <c r="H157" s="6"/>
+      <c r="I157" s="12"/>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" s="23"/>
+      <c r="B158" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C158" s="5">
+        <v>1</v>
+      </c>
+      <c r="D158" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E158" s="9">
+        <v>5</v>
+      </c>
+      <c r="F158" s="9">
+        <v>250</v>
+      </c>
+      <c r="G158" s="6"/>
+      <c r="H158" s="6"/>
+      <c r="I158" s="12"/>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" s="23"/>
+      <c r="B159" s="26"/>
+      <c r="C159" s="5">
+        <v>2</v>
+      </c>
+      <c r="D159" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E159" s="9">
+        <v>5</v>
+      </c>
+      <c r="F159" s="9">
+        <v>250</v>
+      </c>
+      <c r="G159" s="6"/>
+      <c r="H159" s="6"/>
+      <c r="I159" s="12"/>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" s="23"/>
+      <c r="B160" s="26"/>
+      <c r="C160" s="5">
+        <v>3</v>
+      </c>
+      <c r="D160" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E160" s="9">
+        <v>5</v>
+      </c>
+      <c r="F160" s="9">
+        <v>250</v>
+      </c>
+      <c r="G160" s="6"/>
+      <c r="H160" s="6"/>
+      <c r="I160" s="12"/>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" s="24"/>
+      <c r="B161" s="29"/>
+      <c r="C161" s="13">
+        <v>4</v>
+      </c>
+      <c r="D161" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E161" s="9">
+        <v>5</v>
+      </c>
+      <c r="F161" s="9">
+        <v>250</v>
+      </c>
+      <c r="G161" s="14"/>
+      <c r="H161" s="14"/>
+      <c r="I161" s="15"/>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" s="22">
+        <v>11</v>
+      </c>
+      <c r="B162" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C162" s="9">
+        <v>1</v>
+      </c>
+      <c r="D162" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E162" s="9">
+        <v>5</v>
+      </c>
+      <c r="F162" s="9">
+        <v>250</v>
+      </c>
+      <c r="G162" s="10"/>
+      <c r="H162" s="10"/>
+      <c r="I162" s="11"/>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" s="23"/>
+      <c r="B163" s="26"/>
+      <c r="C163" s="5">
+        <v>2</v>
+      </c>
+      <c r="D163" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E163" s="9">
+        <v>5</v>
+      </c>
+      <c r="F163" s="9">
+        <v>250</v>
+      </c>
+      <c r="G163" s="6"/>
+      <c r="H163" s="6"/>
+      <c r="I163" s="12"/>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" s="23"/>
+      <c r="B164" s="26"/>
+      <c r="C164" s="5">
+        <v>3</v>
+      </c>
+      <c r="D164" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E164" s="9">
+        <v>5</v>
+      </c>
+      <c r="F164" s="9">
+        <v>250</v>
+      </c>
+      <c r="G164" s="6"/>
+      <c r="H164" s="6"/>
+      <c r="I164" s="12"/>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" s="23"/>
+      <c r="B165" s="27"/>
+      <c r="C165" s="5">
+        <v>4</v>
+      </c>
+      <c r="D165" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E165" s="9">
+        <v>5</v>
+      </c>
+      <c r="F165" s="9">
+        <v>250</v>
+      </c>
+      <c r="G165" s="6"/>
+      <c r="H165" s="6"/>
+      <c r="I165" s="12"/>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" s="23"/>
+      <c r="B166" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C166" s="5">
+        <v>1</v>
+      </c>
+      <c r="D166" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E166" s="9">
+        <v>5</v>
+      </c>
+      <c r="F166" s="9">
+        <v>250</v>
+      </c>
+      <c r="G166" s="6"/>
+      <c r="H166" s="6"/>
+      <c r="I166" s="12"/>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167" s="23"/>
+      <c r="B167" s="26"/>
+      <c r="C167" s="5">
+        <v>2</v>
+      </c>
+      <c r="D167" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E167" s="9">
+        <v>5</v>
+      </c>
+      <c r="F167" s="9">
+        <v>250</v>
+      </c>
+      <c r="G167" s="6"/>
+      <c r="H167" s="6"/>
+      <c r="I167" s="12"/>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168" s="23"/>
+      <c r="B168" s="26"/>
+      <c r="C168" s="5">
+        <v>3</v>
+      </c>
+      <c r="D168" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E168" s="9">
+        <v>5</v>
+      </c>
+      <c r="F168" s="9">
+        <v>250</v>
+      </c>
+      <c r="G168" s="6"/>
+      <c r="H168" s="6"/>
+      <c r="I168" s="12"/>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169" s="23"/>
+      <c r="B169" s="27"/>
+      <c r="C169" s="5">
+        <v>4</v>
+      </c>
+      <c r="D169" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E169" s="9">
+        <v>5</v>
+      </c>
+      <c r="F169" s="9">
+        <v>250</v>
+      </c>
+      <c r="G169" s="6"/>
+      <c r="H169" s="6"/>
+      <c r="I169" s="12"/>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170" s="23"/>
+      <c r="B170" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C170" s="5">
+        <v>1</v>
+      </c>
+      <c r="D170" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E170" s="9">
+        <v>5</v>
+      </c>
+      <c r="F170" s="9">
+        <v>250</v>
+      </c>
+      <c r="G170" s="6"/>
+      <c r="H170" s="6"/>
+      <c r="I170" s="12"/>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171" s="23"/>
+      <c r="B171" s="26"/>
+      <c r="C171" s="5">
+        <v>2</v>
+      </c>
+      <c r="D171" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E171" s="9">
+        <v>5</v>
+      </c>
+      <c r="F171" s="9">
+        <v>250</v>
+      </c>
+      <c r="G171" s="6"/>
+      <c r="H171" s="6"/>
+      <c r="I171" s="12"/>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172" s="23"/>
+      <c r="B172" s="26"/>
+      <c r="C172" s="5">
+        <v>3</v>
+      </c>
+      <c r="D172" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E172" s="9">
+        <v>5</v>
+      </c>
+      <c r="F172" s="9">
+        <v>250</v>
+      </c>
+      <c r="G172" s="6"/>
+      <c r="H172" s="6"/>
+      <c r="I172" s="12"/>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173" s="23"/>
+      <c r="B173" s="27"/>
+      <c r="C173" s="5">
+        <v>4</v>
+      </c>
+      <c r="D173" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E173" s="9">
+        <v>5</v>
+      </c>
+      <c r="F173" s="9">
+        <v>250</v>
+      </c>
+      <c r="G173" s="6"/>
+      <c r="H173" s="6"/>
+      <c r="I173" s="12"/>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174" s="23"/>
+      <c r="B174" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C174" s="5">
+        <v>1</v>
+      </c>
+      <c r="D174" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E174" s="9">
+        <v>5</v>
+      </c>
+      <c r="F174" s="9">
+        <v>250</v>
+      </c>
+      <c r="G174" s="6"/>
+      <c r="H174" s="6"/>
+      <c r="I174" s="12"/>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175" s="23"/>
+      <c r="B175" s="26"/>
+      <c r="C175" s="5">
+        <v>2</v>
+      </c>
+      <c r="D175" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E175" s="9">
+        <v>5</v>
+      </c>
+      <c r="F175" s="9">
+        <v>250</v>
+      </c>
+      <c r="G175" s="6"/>
+      <c r="H175" s="6"/>
+      <c r="I175" s="12"/>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176" s="23"/>
+      <c r="B176" s="26"/>
+      <c r="C176" s="5">
+        <v>3</v>
+      </c>
+      <c r="D176" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E176" s="9">
+        <v>5</v>
+      </c>
+      <c r="F176" s="9">
+        <v>250</v>
+      </c>
+      <c r="G176" s="6"/>
+      <c r="H176" s="6"/>
+      <c r="I176" s="12"/>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177" s="24"/>
+      <c r="B177" s="29"/>
+      <c r="C177" s="13">
+        <v>4</v>
+      </c>
+      <c r="D177" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E177" s="9">
+        <v>5</v>
+      </c>
+      <c r="F177" s="9">
+        <v>250</v>
+      </c>
+      <c r="G177" s="14"/>
+      <c r="H177" s="14"/>
+      <c r="I177" s="15"/>
+    </row>
+    <row r="178" spans="1:9">
+      <c r="A178" s="22">
+        <v>12</v>
+      </c>
+      <c r="B178" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C178" s="9">
+        <v>1</v>
+      </c>
+      <c r="D178" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E178" s="9">
+        <v>5</v>
+      </c>
+      <c r="F178" s="9">
+        <v>250</v>
+      </c>
+      <c r="G178" s="10"/>
+      <c r="H178" s="10"/>
+      <c r="I178" s="11"/>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179" s="23"/>
+      <c r="B179" s="26"/>
+      <c r="C179" s="5">
+        <v>2</v>
+      </c>
+      <c r="D179" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E179" s="9">
+        <v>5</v>
+      </c>
+      <c r="F179" s="9">
+        <v>250</v>
+      </c>
+      <c r="G179" s="6"/>
+      <c r="H179" s="6"/>
+      <c r="I179" s="12"/>
+    </row>
+    <row r="180" spans="1:9">
+      <c r="A180" s="23"/>
+      <c r="B180" s="26"/>
+      <c r="C180" s="5">
+        <v>3</v>
+      </c>
+      <c r="D180" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E180" s="9">
+        <v>5</v>
+      </c>
+      <c r="F180" s="9">
+        <v>250</v>
+      </c>
+      <c r="G180" s="6"/>
+      <c r="H180" s="6"/>
+      <c r="I180" s="12"/>
+    </row>
+    <row r="181" spans="1:9">
+      <c r="A181" s="23"/>
+      <c r="B181" s="27"/>
+      <c r="C181" s="5">
+        <v>4</v>
+      </c>
+      <c r="D181" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E181" s="9">
+        <v>5</v>
+      </c>
+      <c r="F181" s="9">
+        <v>250</v>
+      </c>
+      <c r="G181" s="6"/>
+      <c r="H181" s="6"/>
+      <c r="I181" s="12"/>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182" s="23"/>
+      <c r="B182" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C182" s="5">
+        <v>1</v>
+      </c>
+      <c r="D182" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E182" s="9">
+        <v>5</v>
+      </c>
+      <c r="F182" s="9">
+        <v>250</v>
+      </c>
+      <c r="G182" s="6"/>
+      <c r="H182" s="6"/>
+      <c r="I182" s="12"/>
+    </row>
+    <row r="183" spans="1:9">
+      <c r="A183" s="23"/>
+      <c r="B183" s="26"/>
+      <c r="C183" s="5">
+        <v>2</v>
+      </c>
+      <c r="D183" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E183" s="9">
+        <v>5</v>
+      </c>
+      <c r="F183" s="9">
+        <v>250</v>
+      </c>
+      <c r="G183" s="6"/>
+      <c r="H183" s="6"/>
+      <c r="I183" s="12"/>
+    </row>
+    <row r="184" spans="1:9">
+      <c r="A184" s="23"/>
+      <c r="B184" s="26"/>
+      <c r="C184" s="5">
+        <v>3</v>
+      </c>
+      <c r="D184" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E184" s="9">
+        <v>5</v>
+      </c>
+      <c r="F184" s="9">
+        <v>250</v>
+      </c>
+      <c r="G184" s="6"/>
+      <c r="H184" s="6"/>
+      <c r="I184" s="12"/>
+    </row>
+    <row r="185" spans="1:9">
+      <c r="A185" s="23"/>
+      <c r="B185" s="27"/>
+      <c r="C185" s="5">
+        <v>4</v>
+      </c>
+      <c r="D185" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E185" s="9">
+        <v>5</v>
+      </c>
+      <c r="F185" s="9">
+        <v>250</v>
+      </c>
+      <c r="G185" s="6"/>
+      <c r="H185" s="6"/>
+      <c r="I185" s="12"/>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="A186" s="23"/>
+      <c r="B186" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C186" s="5">
+        <v>1</v>
+      </c>
+      <c r="D186" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E186" s="9">
+        <v>5</v>
+      </c>
+      <c r="F186" s="9">
+        <v>250</v>
+      </c>
+      <c r="G186" s="6"/>
+      <c r="H186" s="6"/>
+      <c r="I186" s="12"/>
+    </row>
+    <row r="187" spans="1:9">
+      <c r="A187" s="23"/>
+      <c r="B187" s="26"/>
+      <c r="C187" s="5">
+        <v>2</v>
+      </c>
+      <c r="D187" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E187" s="9">
+        <v>5</v>
+      </c>
+      <c r="F187" s="9">
+        <v>250</v>
+      </c>
+      <c r="G187" s="6"/>
+      <c r="H187" s="6"/>
+      <c r="I187" s="12"/>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="A188" s="23"/>
+      <c r="B188" s="26"/>
+      <c r="C188" s="5">
+        <v>3</v>
+      </c>
+      <c r="D188" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E188" s="9">
+        <v>5</v>
+      </c>
+      <c r="F188" s="9">
+        <v>250</v>
+      </c>
+      <c r="G188" s="6"/>
+      <c r="H188" s="6"/>
+      <c r="I188" s="12"/>
+    </row>
+    <row r="189" spans="1:9">
+      <c r="A189" s="23"/>
+      <c r="B189" s="27"/>
+      <c r="C189" s="5">
+        <v>4</v>
+      </c>
+      <c r="D189" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E189" s="9">
+        <v>5</v>
+      </c>
+      <c r="F189" s="9">
+        <v>250</v>
+      </c>
+      <c r="G189" s="6"/>
+      <c r="H189" s="6"/>
+      <c r="I189" s="12"/>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="A190" s="23"/>
+      <c r="B190" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C190" s="5">
+        <v>1</v>
+      </c>
+      <c r="D190" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E190" s="9">
+        <v>5</v>
+      </c>
+      <c r="F190" s="9">
+        <v>250</v>
+      </c>
+      <c r="G190" s="6"/>
+      <c r="H190" s="6"/>
+      <c r="I190" s="12"/>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="A191" s="23"/>
+      <c r="B191" s="26"/>
+      <c r="C191" s="5">
+        <v>2</v>
+      </c>
+      <c r="D191" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E191" s="9">
+        <v>5</v>
+      </c>
+      <c r="F191" s="9">
+        <v>250</v>
+      </c>
+      <c r="G191" s="6"/>
+      <c r="H191" s="6"/>
+      <c r="I191" s="12"/>
+    </row>
+    <row r="192" spans="1:9">
+      <c r="A192" s="23"/>
+      <c r="B192" s="26"/>
+      <c r="C192" s="5">
+        <v>3</v>
+      </c>
+      <c r="D192" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E192" s="9">
+        <v>5</v>
+      </c>
+      <c r="F192" s="9">
+        <v>250</v>
+      </c>
+      <c r="G192" s="6"/>
+      <c r="H192" s="6"/>
+      <c r="I192" s="12"/>
+    </row>
+    <row r="193" spans="1:9">
+      <c r="A193" s="24"/>
+      <c r="B193" s="29"/>
+      <c r="C193" s="13">
+        <v>4</v>
+      </c>
+      <c r="D193" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E193" s="9">
+        <v>5</v>
+      </c>
+      <c r="F193" s="9">
+        <v>250</v>
+      </c>
+      <c r="G193" s="14"/>
+      <c r="H193" s="14"/>
+      <c r="I193" s="15"/>
+    </row>
+    <row r="194" spans="1:9">
+      <c r="A194" s="22">
+        <v>13</v>
+      </c>
+      <c r="B194" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C194" s="9">
+        <v>1</v>
+      </c>
+      <c r="D194" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E194" s="9">
+        <v>5</v>
+      </c>
+      <c r="F194" s="9">
+        <v>200</v>
+      </c>
+      <c r="G194" s="10"/>
+      <c r="H194" s="10"/>
+      <c r="I194" s="11"/>
+    </row>
+    <row r="195" spans="1:9">
+      <c r="A195" s="23"/>
+      <c r="B195" s="26"/>
+      <c r="C195" s="5">
+        <v>2</v>
+      </c>
+      <c r="D195" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E195" s="9">
+        <v>5</v>
+      </c>
+      <c r="F195" s="9">
+        <v>200</v>
+      </c>
+      <c r="G195" s="6"/>
+      <c r="H195" s="6"/>
+      <c r="I195" s="12"/>
+    </row>
+    <row r="196" spans="1:9">
+      <c r="A196" s="23"/>
+      <c r="B196" s="26"/>
+      <c r="C196" s="5">
+        <v>3</v>
+      </c>
+      <c r="D196" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E196" s="9">
+        <v>5</v>
+      </c>
+      <c r="F196" s="9">
+        <v>200</v>
+      </c>
+      <c r="G196" s="6"/>
+      <c r="H196" s="6"/>
+      <c r="I196" s="12"/>
+    </row>
+    <row r="197" spans="1:9">
+      <c r="A197" s="23"/>
+      <c r="B197" s="27"/>
+      <c r="C197" s="5">
+        <v>4</v>
+      </c>
+      <c r="D197" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E197" s="9">
+        <v>5</v>
+      </c>
+      <c r="F197" s="9">
+        <v>200</v>
+      </c>
+      <c r="G197" s="6"/>
+      <c r="H197" s="6"/>
+      <c r="I197" s="12"/>
+    </row>
+    <row r="198" spans="1:9">
+      <c r="A198" s="23"/>
+      <c r="B198" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C198" s="5">
+        <v>1</v>
+      </c>
+      <c r="D198" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E198" s="9">
+        <v>5</v>
+      </c>
+      <c r="F198" s="9">
+        <v>200</v>
+      </c>
+      <c r="G198" s="6"/>
+      <c r="H198" s="6"/>
+      <c r="I198" s="12"/>
+    </row>
+    <row r="199" spans="1:9">
+      <c r="A199" s="23"/>
+      <c r="B199" s="26"/>
+      <c r="C199" s="5">
+        <v>2</v>
+      </c>
+      <c r="D199" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E199" s="9">
+        <v>5</v>
+      </c>
+      <c r="F199" s="9">
+        <v>200</v>
+      </c>
+      <c r="G199" s="6"/>
+      <c r="H199" s="6"/>
+      <c r="I199" s="12"/>
+    </row>
+    <row r="200" spans="1:9">
+      <c r="A200" s="23"/>
+      <c r="B200" s="26"/>
+      <c r="C200" s="5">
+        <v>3</v>
+      </c>
+      <c r="D200" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E200" s="9">
+        <v>5</v>
+      </c>
+      <c r="F200" s="9">
+        <v>200</v>
+      </c>
+      <c r="G200" s="6"/>
+      <c r="H200" s="6"/>
+      <c r="I200" s="12"/>
+    </row>
+    <row r="201" spans="1:9">
+      <c r="A201" s="23"/>
+      <c r="B201" s="27"/>
+      <c r="C201" s="5">
+        <v>4</v>
+      </c>
+      <c r="D201" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E201" s="9">
+        <v>5</v>
+      </c>
+      <c r="F201" s="9">
+        <v>200</v>
+      </c>
+      <c r="G201" s="6"/>
+      <c r="H201" s="6"/>
+      <c r="I201" s="12"/>
+    </row>
+    <row r="202" spans="1:9">
+      <c r="A202" s="23"/>
+      <c r="B202" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C202" s="5">
+        <v>1</v>
+      </c>
+      <c r="D202" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E202" s="9">
+        <v>5</v>
+      </c>
+      <c r="F202" s="9">
+        <v>200</v>
+      </c>
+      <c r="G202" s="6"/>
+      <c r="H202" s="6"/>
+      <c r="I202" s="12"/>
+    </row>
+    <row r="203" spans="1:9">
+      <c r="A203" s="23"/>
+      <c r="B203" s="26"/>
+      <c r="C203" s="5">
+        <v>2</v>
+      </c>
+      <c r="D203" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E203" s="9">
+        <v>5</v>
+      </c>
+      <c r="F203" s="9">
+        <v>200</v>
+      </c>
+      <c r="G203" s="6"/>
+      <c r="H203" s="6"/>
+      <c r="I203" s="12"/>
+    </row>
+    <row r="204" spans="1:9">
+      <c r="A204" s="23"/>
+      <c r="B204" s="26"/>
+      <c r="C204" s="5">
+        <v>3</v>
+      </c>
+      <c r="D204" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E204" s="9">
+        <v>5</v>
+      </c>
+      <c r="F204" s="9">
+        <v>200</v>
+      </c>
+      <c r="G204" s="6"/>
+      <c r="H204" s="6"/>
+      <c r="I204" s="12"/>
+    </row>
+    <row r="205" spans="1:9">
+      <c r="A205" s="23"/>
+      <c r="B205" s="27"/>
+      <c r="C205" s="5">
+        <v>4</v>
+      </c>
+      <c r="D205" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E205" s="9">
+        <v>5</v>
+      </c>
+      <c r="F205" s="9">
+        <v>200</v>
+      </c>
+      <c r="G205" s="6"/>
+      <c r="H205" s="6"/>
+      <c r="I205" s="12"/>
+    </row>
+    <row r="206" spans="1:9">
+      <c r="A206" s="23"/>
+      <c r="B206" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C206" s="5">
+        <v>1</v>
+      </c>
+      <c r="D206" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E206" s="9">
+        <v>5</v>
+      </c>
+      <c r="F206" s="9">
+        <v>200</v>
+      </c>
+      <c r="G206" s="6"/>
+      <c r="H206" s="6"/>
+      <c r="I206" s="12"/>
+    </row>
+    <row r="207" spans="1:9">
+      <c r="A207" s="23"/>
+      <c r="B207" s="26"/>
+      <c r="C207" s="5">
+        <v>2</v>
+      </c>
+      <c r="D207" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E207" s="9">
+        <v>5</v>
+      </c>
+      <c r="F207" s="9">
+        <v>200</v>
+      </c>
+      <c r="G207" s="6"/>
+      <c r="H207" s="6"/>
+      <c r="I207" s="12"/>
+    </row>
+    <row r="208" spans="1:9">
+      <c r="A208" s="23"/>
+      <c r="B208" s="26"/>
+      <c r="C208" s="5">
+        <v>3</v>
+      </c>
+      <c r="D208" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E208" s="9">
+        <v>5</v>
+      </c>
+      <c r="F208" s="9">
+        <v>200</v>
+      </c>
+      <c r="G208" s="6"/>
+      <c r="H208" s="6"/>
+      <c r="I208" s="12"/>
+    </row>
+    <row r="209" spans="1:9">
+      <c r="A209" s="24"/>
+      <c r="B209" s="29"/>
+      <c r="C209" s="13">
+        <v>4</v>
+      </c>
+      <c r="D209" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E209" s="9">
+        <v>5</v>
+      </c>
+      <c r="F209" s="9">
+        <v>200</v>
+      </c>
+      <c r="G209" s="14"/>
+      <c r="H209" s="14"/>
+      <c r="I209" s="15"/>
+    </row>
+    <row r="210" spans="1:9">
+      <c r="A210" s="22">
+        <v>14</v>
+      </c>
+      <c r="B210" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C210" s="9">
+        <v>1</v>
+      </c>
+      <c r="D210" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E210" s="9">
+        <v>5</v>
+      </c>
+      <c r="F210" s="9">
+        <v>200</v>
+      </c>
+      <c r="G210" s="10"/>
+      <c r="H210" s="10"/>
+      <c r="I210" s="11"/>
+    </row>
+    <row r="211" spans="1:9">
+      <c r="A211" s="23"/>
+      <c r="B211" s="26"/>
+      <c r="C211" s="5">
+        <v>2</v>
+      </c>
+      <c r="D211" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E211" s="9">
+        <v>5</v>
+      </c>
+      <c r="F211" s="9">
+        <v>200</v>
+      </c>
+      <c r="G211" s="6"/>
+      <c r="H211" s="6"/>
+      <c r="I211" s="12"/>
+    </row>
+    <row r="212" spans="1:9">
+      <c r="A212" s="23"/>
+      <c r="B212" s="26"/>
+      <c r="C212" s="5">
+        <v>3</v>
+      </c>
+      <c r="D212" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E212" s="9">
+        <v>5</v>
+      </c>
+      <c r="F212" s="9">
+        <v>200</v>
+      </c>
+      <c r="G212" s="6"/>
+      <c r="H212" s="6"/>
+      <c r="I212" s="12"/>
+    </row>
+    <row r="213" spans="1:9">
+      <c r="A213" s="23"/>
+      <c r="B213" s="27"/>
+      <c r="C213" s="5">
+        <v>4</v>
+      </c>
+      <c r="D213" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E213" s="9">
+        <v>5</v>
+      </c>
+      <c r="F213" s="9">
+        <v>200</v>
+      </c>
+      <c r="G213" s="6"/>
+      <c r="H213" s="6"/>
+      <c r="I213" s="12"/>
+    </row>
+    <row r="214" spans="1:9">
+      <c r="A214" s="23"/>
+      <c r="B214" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C214" s="5">
+        <v>1</v>
+      </c>
+      <c r="D214" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E214" s="9">
+        <v>5</v>
+      </c>
+      <c r="F214" s="9">
+        <v>200</v>
+      </c>
+      <c r="G214" s="6"/>
+      <c r="H214" s="6"/>
+      <c r="I214" s="12"/>
+    </row>
+    <row r="215" spans="1:9">
+      <c r="A215" s="23"/>
+      <c r="B215" s="26"/>
+      <c r="C215" s="5">
+        <v>2</v>
+      </c>
+      <c r="D215" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E215" s="9">
+        <v>5</v>
+      </c>
+      <c r="F215" s="9">
+        <v>200</v>
+      </c>
+      <c r="G215" s="6"/>
+      <c r="H215" s="6"/>
+      <c r="I215" s="12"/>
+    </row>
+    <row r="216" spans="1:9">
+      <c r="A216" s="23"/>
+      <c r="B216" s="26"/>
+      <c r="C216" s="5">
+        <v>3</v>
+      </c>
+      <c r="D216" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E216" s="9">
+        <v>5</v>
+      </c>
+      <c r="F216" s="9">
+        <v>200</v>
+      </c>
+      <c r="G216" s="6"/>
+      <c r="H216" s="6"/>
+      <c r="I216" s="12"/>
+    </row>
+    <row r="217" spans="1:9">
+      <c r="A217" s="23"/>
+      <c r="B217" s="27"/>
+      <c r="C217" s="5">
+        <v>4</v>
+      </c>
+      <c r="D217" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E217" s="9">
+        <v>5</v>
+      </c>
+      <c r="F217" s="9">
+        <v>200</v>
+      </c>
+      <c r="G217" s="6"/>
+      <c r="H217" s="6"/>
+      <c r="I217" s="12"/>
+    </row>
+    <row r="218" spans="1:9">
+      <c r="A218" s="23"/>
+      <c r="B218" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C218" s="5">
+        <v>1</v>
+      </c>
+      <c r="D218" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E218" s="9">
+        <v>5</v>
+      </c>
+      <c r="F218" s="9">
+        <v>200</v>
+      </c>
+      <c r="G218" s="6"/>
+      <c r="H218" s="6"/>
+      <c r="I218" s="12"/>
+    </row>
+    <row r="219" spans="1:9">
+      <c r="A219" s="23"/>
+      <c r="B219" s="26"/>
+      <c r="C219" s="5">
+        <v>2</v>
+      </c>
+      <c r="D219" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E219" s="9">
+        <v>5</v>
+      </c>
+      <c r="F219" s="9">
+        <v>200</v>
+      </c>
+      <c r="G219" s="6"/>
+      <c r="H219" s="6"/>
+      <c r="I219" s="12"/>
+    </row>
+    <row r="220" spans="1:9">
+      <c r="A220" s="23"/>
+      <c r="B220" s="26"/>
+      <c r="C220" s="5">
+        <v>3</v>
+      </c>
+      <c r="D220" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E220" s="9">
+        <v>5</v>
+      </c>
+      <c r="F220" s="9">
+        <v>200</v>
+      </c>
+      <c r="G220" s="6"/>
+      <c r="H220" s="6"/>
+      <c r="I220" s="12"/>
+    </row>
+    <row r="221" spans="1:9">
+      <c r="A221" s="23"/>
+      <c r="B221" s="27"/>
+      <c r="C221" s="5">
+        <v>4</v>
+      </c>
+      <c r="D221" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E221" s="9">
+        <v>5</v>
+      </c>
+      <c r="F221" s="9">
+        <v>200</v>
+      </c>
+      <c r="G221" s="6"/>
+      <c r="H221" s="6"/>
+      <c r="I221" s="12"/>
+    </row>
+    <row r="222" spans="1:9">
+      <c r="A222" s="23"/>
+      <c r="B222" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C222" s="5">
+        <v>1</v>
+      </c>
+      <c r="D222" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E222" s="9">
+        <v>5</v>
+      </c>
+      <c r="F222" s="9">
+        <v>200</v>
+      </c>
+      <c r="G222" s="6"/>
+      <c r="H222" s="6"/>
+      <c r="I222" s="12"/>
+    </row>
+    <row r="223" spans="1:9">
+      <c r="A223" s="23"/>
+      <c r="B223" s="26"/>
+      <c r="C223" s="5">
+        <v>2</v>
+      </c>
+      <c r="D223" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E223" s="9">
+        <v>5</v>
+      </c>
+      <c r="F223" s="9">
+        <v>200</v>
+      </c>
+      <c r="G223" s="6"/>
+      <c r="H223" s="6"/>
+      <c r="I223" s="12"/>
+    </row>
+    <row r="224" spans="1:9">
+      <c r="A224" s="23"/>
+      <c r="B224" s="26"/>
+      <c r="C224" s="5">
+        <v>3</v>
+      </c>
+      <c r="D224" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E224" s="9">
+        <v>5</v>
+      </c>
+      <c r="F224" s="9">
+        <v>200</v>
+      </c>
+      <c r="G224" s="6"/>
+      <c r="H224" s="6"/>
+      <c r="I224" s="12"/>
+    </row>
+    <row r="225" spans="1:9">
+      <c r="A225" s="24"/>
+      <c r="B225" s="29"/>
+      <c r="C225" s="13">
+        <v>4</v>
+      </c>
+      <c r="D225" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E225" s="9">
+        <v>5</v>
+      </c>
+      <c r="F225" s="9">
+        <v>200</v>
+      </c>
+      <c r="G225" s="14"/>
+      <c r="H225" s="14"/>
+      <c r="I225" s="15"/>
+    </row>
+    <row r="226" spans="1:9">
+      <c r="A226" s="22">
+        <v>15</v>
+      </c>
+      <c r="B226" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C226" s="9">
+        <v>1</v>
+      </c>
+      <c r="D226" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E226" s="9">
+        <v>5</v>
+      </c>
+      <c r="F226" s="9">
+        <v>200</v>
+      </c>
+      <c r="G226" s="10"/>
+      <c r="H226" s="10"/>
+      <c r="I226" s="11"/>
+    </row>
+    <row r="227" spans="1:9">
+      <c r="A227" s="23"/>
+      <c r="B227" s="26"/>
+      <c r="C227" s="5">
+        <v>2</v>
+      </c>
+      <c r="D227" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E227" s="9">
+        <v>5</v>
+      </c>
+      <c r="F227" s="9">
+        <v>200</v>
+      </c>
+      <c r="G227" s="6"/>
+      <c r="H227" s="6"/>
+      <c r="I227" s="12"/>
+    </row>
+    <row r="228" spans="1:9">
+      <c r="A228" s="23"/>
+      <c r="B228" s="26"/>
+      <c r="C228" s="5">
+        <v>3</v>
+      </c>
+      <c r="D228" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E228" s="9">
+        <v>5</v>
+      </c>
+      <c r="F228" s="9">
+        <v>200</v>
+      </c>
+      <c r="G228" s="6"/>
+      <c r="H228" s="6"/>
+      <c r="I228" s="12"/>
+    </row>
+    <row r="229" spans="1:9">
+      <c r="A229" s="23"/>
+      <c r="B229" s="27"/>
+      <c r="C229" s="5">
+        <v>4</v>
+      </c>
+      <c r="D229" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E229" s="9">
+        <v>5</v>
+      </c>
+      <c r="F229" s="9">
+        <v>200</v>
+      </c>
+      <c r="G229" s="6"/>
+      <c r="H229" s="6"/>
+      <c r="I229" s="12"/>
+    </row>
+    <row r="230" spans="1:9">
+      <c r="A230" s="23"/>
+      <c r="B230" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C230" s="5">
+        <v>1</v>
+      </c>
+      <c r="D230" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E230" s="9">
+        <v>5</v>
+      </c>
+      <c r="F230" s="9">
+        <v>200</v>
+      </c>
+      <c r="G230" s="6"/>
+      <c r="H230" s="6"/>
+      <c r="I230" s="12"/>
+    </row>
+    <row r="231" spans="1:9">
+      <c r="A231" s="23"/>
+      <c r="B231" s="26"/>
+      <c r="C231" s="5">
+        <v>2</v>
+      </c>
+      <c r="D231" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E231" s="9">
+        <v>5</v>
+      </c>
+      <c r="F231" s="9">
+        <v>200</v>
+      </c>
+      <c r="G231" s="6"/>
+      <c r="H231" s="6"/>
+      <c r="I231" s="12"/>
+    </row>
+    <row r="232" spans="1:9">
+      <c r="A232" s="23"/>
+      <c r="B232" s="26"/>
+      <c r="C232" s="5">
+        <v>3</v>
+      </c>
+      <c r="D232" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E232" s="9">
+        <v>5</v>
+      </c>
+      <c r="F232" s="9">
+        <v>200</v>
+      </c>
+      <c r="G232" s="6"/>
+      <c r="H232" s="6"/>
+      <c r="I232" s="12"/>
+    </row>
+    <row r="233" spans="1:9">
+      <c r="A233" s="23"/>
+      <c r="B233" s="27"/>
+      <c r="C233" s="5">
+        <v>4</v>
+      </c>
+      <c r="D233" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E233" s="9">
+        <v>5</v>
+      </c>
+      <c r="F233" s="9">
+        <v>200</v>
+      </c>
+      <c r="G233" s="6"/>
+      <c r="H233" s="6"/>
+      <c r="I233" s="12"/>
+    </row>
+    <row r="234" spans="1:9">
+      <c r="A234" s="23"/>
+      <c r="B234" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C234" s="5">
+        <v>1</v>
+      </c>
+      <c r="D234" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E234" s="9">
+        <v>5</v>
+      </c>
+      <c r="F234" s="9">
+        <v>200</v>
+      </c>
+      <c r="G234" s="6"/>
+      <c r="H234" s="6"/>
+      <c r="I234" s="12"/>
+    </row>
+    <row r="235" spans="1:9">
+      <c r="A235" s="23"/>
+      <c r="B235" s="26"/>
+      <c r="C235" s="5">
+        <v>2</v>
+      </c>
+      <c r="D235" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E235" s="9">
+        <v>5</v>
+      </c>
+      <c r="F235" s="9">
+        <v>200</v>
+      </c>
+      <c r="G235" s="6"/>
+      <c r="H235" s="6"/>
+      <c r="I235" s="12"/>
+    </row>
+    <row r="236" spans="1:9">
+      <c r="A236" s="23"/>
+      <c r="B236" s="26"/>
+      <c r="C236" s="5">
+        <v>3</v>
+      </c>
+      <c r="D236" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E236" s="9">
+        <v>5</v>
+      </c>
+      <c r="F236" s="9">
+        <v>200</v>
+      </c>
+      <c r="G236" s="6"/>
+      <c r="H236" s="6"/>
+      <c r="I236" s="12"/>
+    </row>
+    <row r="237" spans="1:9">
+      <c r="A237" s="23"/>
+      <c r="B237" s="27"/>
+      <c r="C237" s="5">
+        <v>4</v>
+      </c>
+      <c r="D237" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E237" s="9">
+        <v>5</v>
+      </c>
+      <c r="F237" s="9">
+        <v>200</v>
+      </c>
+      <c r="G237" s="6"/>
+      <c r="H237" s="6"/>
+      <c r="I237" s="12"/>
+    </row>
+    <row r="238" spans="1:9">
+      <c r="A238" s="23"/>
+      <c r="B238" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C238" s="5">
+        <v>1</v>
+      </c>
+      <c r="D238" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E238" s="9">
+        <v>5</v>
+      </c>
+      <c r="F238" s="9">
+        <v>200</v>
+      </c>
+      <c r="G238" s="6"/>
+      <c r="H238" s="6"/>
+      <c r="I238" s="12"/>
+    </row>
+    <row r="239" spans="1:9">
+      <c r="A239" s="23"/>
+      <c r="B239" s="26"/>
+      <c r="C239" s="5">
+        <v>2</v>
+      </c>
+      <c r="D239" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E239" s="9">
+        <v>5</v>
+      </c>
+      <c r="F239" s="9">
+        <v>200</v>
+      </c>
+      <c r="G239" s="6"/>
+      <c r="H239" s="6"/>
+      <c r="I239" s="12"/>
+    </row>
+    <row r="240" spans="1:9">
+      <c r="A240" s="23"/>
+      <c r="B240" s="26"/>
+      <c r="C240" s="5">
+        <v>3</v>
+      </c>
+      <c r="D240" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E240" s="9">
+        <v>5</v>
+      </c>
+      <c r="F240" s="9">
+        <v>200</v>
+      </c>
+      <c r="G240" s="6"/>
+      <c r="H240" s="6"/>
+      <c r="I240" s="12"/>
+    </row>
+    <row r="241" spans="1:9">
+      <c r="A241" s="24"/>
+      <c r="B241" s="29"/>
+      <c r="C241" s="13">
+        <v>4</v>
+      </c>
+      <c r="D241" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E241" s="9">
+        <v>5</v>
+      </c>
+      <c r="F241" s="9">
+        <v>200</v>
+      </c>
+      <c r="G241" s="14"/>
+      <c r="H241" s="14"/>
+      <c r="I241" s="15"/>
+    </row>
+    <row r="242" spans="1:9">
+      <c r="A242" s="22">
+        <v>16</v>
+      </c>
+      <c r="B242" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C242" s="9">
+        <v>1</v>
+      </c>
+      <c r="D242" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E242" s="9">
+        <v>5</v>
+      </c>
+      <c r="F242" s="9">
+        <v>150</v>
+      </c>
+      <c r="G242" s="10"/>
+      <c r="H242" s="10"/>
+      <c r="I242" s="11"/>
+    </row>
+    <row r="243" spans="1:9">
+      <c r="A243" s="23"/>
+      <c r="B243" s="26"/>
+      <c r="C243" s="5">
+        <v>2</v>
+      </c>
+      <c r="D243" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E243" s="9">
+        <v>5</v>
+      </c>
+      <c r="F243" s="9">
+        <v>150</v>
+      </c>
+      <c r="G243" s="6"/>
+      <c r="H243" s="6"/>
+      <c r="I243" s="12"/>
+    </row>
+    <row r="244" spans="1:9">
+      <c r="A244" s="23"/>
+      <c r="B244" s="26"/>
+      <c r="C244" s="5">
+        <v>3</v>
+      </c>
+      <c r="D244" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E244" s="9">
+        <v>5</v>
+      </c>
+      <c r="F244" s="9">
+        <v>150</v>
+      </c>
+      <c r="G244" s="6"/>
+      <c r="H244" s="6"/>
+      <c r="I244" s="12"/>
+    </row>
+    <row r="245" spans="1:9">
+      <c r="A245" s="23"/>
+      <c r="B245" s="27"/>
+      <c r="C245" s="5">
+        <v>4</v>
+      </c>
+      <c r="D245" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E245" s="9">
+        <v>5</v>
+      </c>
+      <c r="F245" s="9">
+        <v>150</v>
+      </c>
+      <c r="G245" s="6"/>
+      <c r="H245" s="6"/>
+      <c r="I245" s="12"/>
+    </row>
+    <row r="246" spans="1:9">
+      <c r="A246" s="23"/>
+      <c r="B246" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C246" s="5">
+        <v>1</v>
+      </c>
+      <c r="D246" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E246" s="9">
+        <v>5</v>
+      </c>
+      <c r="F246" s="9">
+        <v>150</v>
+      </c>
+      <c r="G246" s="6"/>
+      <c r="H246" s="6"/>
+      <c r="I246" s="12"/>
+    </row>
+    <row r="247" spans="1:9">
+      <c r="A247" s="23"/>
+      <c r="B247" s="26"/>
+      <c r="C247" s="5">
+        <v>2</v>
+      </c>
+      <c r="D247" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E247" s="9">
+        <v>5</v>
+      </c>
+      <c r="F247" s="9">
+        <v>150</v>
+      </c>
+      <c r="G247" s="6"/>
+      <c r="H247" s="6"/>
+      <c r="I247" s="12"/>
+    </row>
+    <row r="248" spans="1:9">
+      <c r="A248" s="23"/>
+      <c r="B248" s="26"/>
+      <c r="C248" s="5">
+        <v>3</v>
+      </c>
+      <c r="D248" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E248" s="9">
+        <v>5</v>
+      </c>
+      <c r="F248" s="9">
+        <v>150</v>
+      </c>
+      <c r="G248" s="6"/>
+      <c r="H248" s="6"/>
+      <c r="I248" s="12"/>
+    </row>
+    <row r="249" spans="1:9">
+      <c r="A249" s="23"/>
+      <c r="B249" s="27"/>
+      <c r="C249" s="5">
+        <v>4</v>
+      </c>
+      <c r="D249" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E249" s="9">
+        <v>5</v>
+      </c>
+      <c r="F249" s="9">
+        <v>150</v>
+      </c>
+      <c r="G249" s="6"/>
+      <c r="H249" s="6"/>
+      <c r="I249" s="12"/>
+    </row>
+    <row r="250" spans="1:9">
+      <c r="A250" s="23"/>
+      <c r="B250" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C250" s="5">
+        <v>1</v>
+      </c>
+      <c r="D250" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E250" s="9">
+        <v>5</v>
+      </c>
+      <c r="F250" s="9">
+        <v>150</v>
+      </c>
+      <c r="G250" s="6"/>
+      <c r="H250" s="6"/>
+      <c r="I250" s="12"/>
+    </row>
+    <row r="251" spans="1:9">
+      <c r="A251" s="23"/>
+      <c r="B251" s="26"/>
+      <c r="C251" s="5">
+        <v>2</v>
+      </c>
+      <c r="D251" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E251" s="9">
+        <v>5</v>
+      </c>
+      <c r="F251" s="9">
+        <v>150</v>
+      </c>
+      <c r="G251" s="6"/>
+      <c r="H251" s="6"/>
+      <c r="I251" s="12"/>
+    </row>
+    <row r="252" spans="1:9">
+      <c r="A252" s="23"/>
+      <c r="B252" s="26"/>
+      <c r="C252" s="5">
+        <v>3</v>
+      </c>
+      <c r="D252" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E252" s="9">
+        <v>5</v>
+      </c>
+      <c r="F252" s="9">
+        <v>150</v>
+      </c>
+      <c r="G252" s="6"/>
+      <c r="H252" s="6"/>
+      <c r="I252" s="12"/>
+    </row>
+    <row r="253" spans="1:9">
+      <c r="A253" s="23"/>
+      <c r="B253" s="27"/>
+      <c r="C253" s="5">
+        <v>4</v>
+      </c>
+      <c r="D253" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E253" s="9">
+        <v>5</v>
+      </c>
+      <c r="F253" s="9">
+        <v>150</v>
+      </c>
+      <c r="G253" s="6"/>
+      <c r="H253" s="6"/>
+      <c r="I253" s="12"/>
+    </row>
+    <row r="254" spans="1:9">
+      <c r="A254" s="23"/>
+      <c r="B254" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C254" s="5">
+        <v>1</v>
+      </c>
+      <c r="D254" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E254" s="9">
+        <v>5</v>
+      </c>
+      <c r="F254" s="9">
+        <v>150</v>
+      </c>
+      <c r="G254" s="6"/>
+      <c r="H254" s="6"/>
+      <c r="I254" s="12"/>
+    </row>
+    <row r="255" spans="1:9">
+      <c r="A255" s="23"/>
+      <c r="B255" s="26"/>
+      <c r="C255" s="5">
+        <v>2</v>
+      </c>
+      <c r="D255" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E255" s="9">
+        <v>5</v>
+      </c>
+      <c r="F255" s="9">
+        <v>150</v>
+      </c>
+      <c r="G255" s="6"/>
+      <c r="H255" s="6"/>
+      <c r="I255" s="12"/>
+    </row>
+    <row r="256" spans="1:9">
+      <c r="A256" s="23"/>
+      <c r="B256" s="26"/>
+      <c r="C256" s="5">
+        <v>3</v>
+      </c>
+      <c r="D256" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E256" s="9">
+        <v>5</v>
+      </c>
+      <c r="F256" s="9">
+        <v>150</v>
+      </c>
+      <c r="G256" s="6"/>
+      <c r="H256" s="6"/>
+      <c r="I256" s="12"/>
+    </row>
+    <row r="257" spans="1:9">
+      <c r="A257" s="24"/>
+      <c r="B257" s="29"/>
+      <c r="C257" s="13">
+        <v>4</v>
+      </c>
+      <c r="D257" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E257" s="9">
+        <v>5</v>
+      </c>
+      <c r="F257" s="9">
+        <v>150</v>
+      </c>
+      <c r="G257" s="14"/>
+      <c r="H257" s="14"/>
+      <c r="I257" s="15"/>
+    </row>
+    <row r="258" spans="1:9">
+      <c r="A258" s="22">
+        <v>17</v>
+      </c>
+      <c r="B258" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C258" s="9">
+        <v>1</v>
+      </c>
+      <c r="D258" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E258" s="9">
+        <v>6</v>
+      </c>
+      <c r="F258" s="9">
+        <v>300</v>
+      </c>
+      <c r="G258" s="10"/>
+      <c r="H258" s="10"/>
+      <c r="I258" s="11"/>
+    </row>
+    <row r="259" spans="1:9">
+      <c r="A259" s="23"/>
+      <c r="B259" s="26"/>
+      <c r="C259" s="5">
+        <v>2</v>
+      </c>
+      <c r="D259" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E259" s="9">
+        <v>6</v>
+      </c>
+      <c r="F259" s="9">
+        <v>300</v>
+      </c>
+      <c r="G259" s="6"/>
+      <c r="H259" s="6"/>
+      <c r="I259" s="12"/>
+    </row>
+    <row r="260" spans="1:9">
+      <c r="A260" s="23"/>
+      <c r="B260" s="26"/>
+      <c r="C260" s="5">
+        <v>3</v>
+      </c>
+      <c r="D260" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E260" s="9">
+        <v>6</v>
+      </c>
+      <c r="F260" s="9">
+        <v>300</v>
+      </c>
+      <c r="G260" s="6"/>
+      <c r="H260" s="6"/>
+      <c r="I260" s="12"/>
+    </row>
+    <row r="261" spans="1:9">
+      <c r="A261" s="23"/>
+      <c r="B261" s="27"/>
+      <c r="C261" s="5">
+        <v>4</v>
+      </c>
+      <c r="D261" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E261" s="9">
+        <v>6</v>
+      </c>
+      <c r="F261" s="9">
+        <v>300</v>
+      </c>
+      <c r="G261" s="6"/>
+      <c r="H261" s="6"/>
+      <c r="I261" s="12"/>
+    </row>
+    <row r="262" spans="1:9">
+      <c r="A262" s="23"/>
+      <c r="B262" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C262" s="5">
+        <v>1</v>
+      </c>
+      <c r="D262" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E262" s="9">
+        <v>6</v>
+      </c>
+      <c r="F262" s="9">
+        <v>300</v>
+      </c>
+      <c r="G262" s="6"/>
+      <c r="H262" s="6"/>
+      <c r="I262" s="12"/>
+    </row>
+    <row r="263" spans="1:9">
+      <c r="A263" s="23"/>
+      <c r="B263" s="26"/>
+      <c r="C263" s="5">
+        <v>2</v>
+      </c>
+      <c r="D263" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E263" s="9">
+        <v>6</v>
+      </c>
+      <c r="F263" s="9">
+        <v>300</v>
+      </c>
+      <c r="G263" s="6"/>
+      <c r="H263" s="6"/>
+      <c r="I263" s="12"/>
+    </row>
+    <row r="264" spans="1:9">
+      <c r="A264" s="23"/>
+      <c r="B264" s="26"/>
+      <c r="C264" s="5">
+        <v>3</v>
+      </c>
+      <c r="D264" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E264" s="9">
+        <v>6</v>
+      </c>
+      <c r="F264" s="9">
+        <v>300</v>
+      </c>
+      <c r="G264" s="6"/>
+      <c r="H264" s="6"/>
+      <c r="I264" s="12"/>
+    </row>
+    <row r="265" spans="1:9">
+      <c r="A265" s="23"/>
+      <c r="B265" s="27"/>
+      <c r="C265" s="5">
+        <v>4</v>
+      </c>
+      <c r="D265" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E265" s="9">
+        <v>6</v>
+      </c>
+      <c r="F265" s="9">
+        <v>300</v>
+      </c>
+      <c r="G265" s="6"/>
+      <c r="H265" s="6"/>
+      <c r="I265" s="12"/>
+    </row>
+    <row r="266" spans="1:9">
+      <c r="A266" s="23"/>
+      <c r="B266" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C266" s="5">
+        <v>1</v>
+      </c>
+      <c r="D266" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E266" s="9">
+        <v>6</v>
+      </c>
+      <c r="F266" s="9">
+        <v>300</v>
+      </c>
+      <c r="G266" s="6"/>
+      <c r="H266" s="6"/>
+      <c r="I266" s="12"/>
+    </row>
+    <row r="267" spans="1:9">
+      <c r="A267" s="23"/>
+      <c r="B267" s="26"/>
+      <c r="C267" s="5">
+        <v>2</v>
+      </c>
+      <c r="D267" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E267" s="9">
+        <v>6</v>
+      </c>
+      <c r="F267" s="9">
+        <v>300</v>
+      </c>
+      <c r="G267" s="6"/>
+      <c r="H267" s="6"/>
+      <c r="I267" s="12"/>
+    </row>
+    <row r="268" spans="1:9">
+      <c r="A268" s="23"/>
+      <c r="B268" s="26"/>
+      <c r="C268" s="5">
+        <v>3</v>
+      </c>
+      <c r="D268" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E268" s="9">
+        <v>6</v>
+      </c>
+      <c r="F268" s="9">
+        <v>300</v>
+      </c>
+      <c r="G268" s="6"/>
+      <c r="H268" s="6"/>
+      <c r="I268" s="12"/>
+    </row>
+    <row r="269" spans="1:9">
+      <c r="A269" s="23"/>
+      <c r="B269" s="27"/>
+      <c r="C269" s="5">
+        <v>4</v>
+      </c>
+      <c r="D269" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E269" s="9">
+        <v>6</v>
+      </c>
+      <c r="F269" s="9">
+        <v>300</v>
+      </c>
+      <c r="G269" s="6"/>
+      <c r="H269" s="6"/>
+      <c r="I269" s="12"/>
+    </row>
+    <row r="270" spans="1:9">
+      <c r="A270" s="23"/>
+      <c r="B270" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C270" s="5">
+        <v>1</v>
+      </c>
+      <c r="D270" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E270" s="9">
+        <v>6</v>
+      </c>
+      <c r="F270" s="9">
+        <v>300</v>
+      </c>
+      <c r="G270" s="6"/>
+      <c r="H270" s="6"/>
+      <c r="I270" s="12"/>
+    </row>
+    <row r="271" spans="1:9">
+      <c r="A271" s="23"/>
+      <c r="B271" s="26"/>
+      <c r="C271" s="5">
+        <v>2</v>
+      </c>
+      <c r="D271" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E271" s="9">
+        <v>6</v>
+      </c>
+      <c r="F271" s="9">
+        <v>300</v>
+      </c>
+      <c r="G271" s="6"/>
+      <c r="H271" s="6"/>
+      <c r="I271" s="12"/>
+    </row>
+    <row r="272" spans="1:9">
+      <c r="A272" s="23"/>
+      <c r="B272" s="26"/>
+      <c r="C272" s="5">
+        <v>3</v>
+      </c>
+      <c r="D272" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E272" s="9">
+        <v>6</v>
+      </c>
+      <c r="F272" s="9">
+        <v>300</v>
+      </c>
+      <c r="G272" s="6"/>
+      <c r="H272" s="6"/>
+      <c r="I272" s="12"/>
+    </row>
+    <row r="273" spans="1:9">
+      <c r="A273" s="24"/>
+      <c r="B273" s="29"/>
+      <c r="C273" s="13">
+        <v>4</v>
+      </c>
+      <c r="D273" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E273" s="9">
+        <v>6</v>
+      </c>
+      <c r="F273" s="9">
+        <v>300</v>
+      </c>
+      <c r="G273" s="14"/>
+      <c r="H273" s="14"/>
+      <c r="I273" s="15"/>
+    </row>
+    <row r="274" spans="1:9">
+      <c r="A274" s="22">
+        <v>18</v>
+      </c>
+      <c r="B274" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C274" s="9">
+        <v>1</v>
+      </c>
+      <c r="D274" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E274" s="9">
+        <v>25</v>
+      </c>
+      <c r="F274" s="9"/>
+      <c r="G274" s="10"/>
+      <c r="H274" s="10"/>
+      <c r="I274" s="11"/>
+    </row>
+    <row r="275" spans="1:9">
+      <c r="A275" s="23"/>
+      <c r="B275" s="26"/>
+      <c r="C275" s="5">
+        <v>2</v>
+      </c>
+      <c r="D275" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E275" s="9">
+        <v>5</v>
+      </c>
+      <c r="F275" s="9">
+        <v>250</v>
+      </c>
+      <c r="G275" s="6"/>
+      <c r="H275" s="6"/>
+      <c r="I275" s="12"/>
+    </row>
+    <row r="276" spans="1:9">
+      <c r="A276" s="23"/>
+      <c r="B276" s="26"/>
+      <c r="C276" s="5">
+        <v>3</v>
+      </c>
+      <c r="D276" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E276" s="9">
+        <v>5</v>
+      </c>
+      <c r="F276" s="9">
+        <v>200</v>
+      </c>
+      <c r="G276" s="6"/>
+      <c r="H276" s="6"/>
+      <c r="I276" s="12"/>
+    </row>
+    <row r="277" spans="1:9">
+      <c r="A277" s="23"/>
+      <c r="B277" s="27"/>
+      <c r="C277" s="5">
+        <v>4</v>
+      </c>
+      <c r="D277" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E277" s="9">
+        <v>5</v>
+      </c>
+      <c r="F277" s="9">
+        <v>150</v>
+      </c>
+      <c r="G277" s="6"/>
+      <c r="H277" s="6"/>
+      <c r="I277" s="12"/>
+    </row>
+    <row r="278" spans="1:9">
+      <c r="A278" s="23"/>
+      <c r="B278" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C278" s="5">
+        <v>1</v>
+      </c>
+      <c r="D278" s="9"/>
+      <c r="E278" s="9"/>
+      <c r="F278" s="9"/>
+      <c r="G278" s="6"/>
+      <c r="H278" s="6"/>
+      <c r="I278" s="12"/>
+    </row>
+    <row r="279" spans="1:9">
+      <c r="A279" s="23"/>
+      <c r="B279" s="26"/>
+      <c r="C279" s="5">
+        <v>2</v>
+      </c>
+      <c r="D279" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E279" s="9">
+        <v>5</v>
+      </c>
+      <c r="F279" s="9">
+        <v>250</v>
+      </c>
+      <c r="G279" s="6"/>
+      <c r="H279" s="6"/>
+      <c r="I279" s="12"/>
+    </row>
+    <row r="280" spans="1:9">
+      <c r="A280" s="23"/>
+      <c r="B280" s="26"/>
+      <c r="C280" s="5">
+        <v>3</v>
+      </c>
+      <c r="D280" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E280" s="9">
+        <v>5</v>
+      </c>
+      <c r="F280" s="9">
+        <v>200</v>
+      </c>
+      <c r="G280" s="6"/>
+      <c r="H280" s="6"/>
+      <c r="I280" s="12"/>
+    </row>
+    <row r="281" spans="1:9">
+      <c r="A281" s="23"/>
+      <c r="B281" s="27"/>
+      <c r="C281" s="5">
+        <v>4</v>
+      </c>
+      <c r="D281" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E281" s="9">
+        <v>5</v>
+      </c>
+      <c r="F281" s="9">
+        <v>150</v>
+      </c>
+      <c r="G281" s="6"/>
+      <c r="H281" s="6"/>
+      <c r="I281" s="12"/>
+    </row>
+    <row r="282" spans="1:9">
+      <c r="A282" s="23"/>
+      <c r="B282" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C282" s="5">
+        <v>1</v>
+      </c>
+      <c r="D282" s="9"/>
+      <c r="E282" s="9"/>
+      <c r="F282" s="9"/>
+      <c r="G282" s="6"/>
+      <c r="H282" s="6"/>
+      <c r="I282" s="12"/>
+    </row>
+    <row r="283" spans="1:9">
+      <c r="A283" s="23"/>
+      <c r="B283" s="26"/>
+      <c r="C283" s="5">
+        <v>2</v>
+      </c>
+      <c r="D283" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E283" s="9">
+        <v>5</v>
+      </c>
+      <c r="F283" s="9">
+        <v>250</v>
+      </c>
+      <c r="G283" s="6"/>
+      <c r="H283" s="6"/>
+      <c r="I283" s="12"/>
+    </row>
+    <row r="284" spans="1:9">
+      <c r="A284" s="23"/>
+      <c r="B284" s="26"/>
+      <c r="C284" s="5">
+        <v>3</v>
+      </c>
+      <c r="D284" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E284" s="9">
+        <v>5</v>
+      </c>
+      <c r="F284" s="9">
+        <v>200</v>
+      </c>
+      <c r="G284" s="6"/>
+      <c r="H284" s="6"/>
+      <c r="I284" s="12"/>
+    </row>
+    <row r="285" spans="1:9">
+      <c r="A285" s="23"/>
+      <c r="B285" s="27"/>
+      <c r="C285" s="5">
+        <v>4</v>
+      </c>
+      <c r="D285" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E285" s="9">
+        <v>5</v>
+      </c>
+      <c r="F285" s="9">
+        <v>150</v>
+      </c>
+      <c r="G285" s="6"/>
+      <c r="H285" s="6"/>
+      <c r="I285" s="12"/>
+    </row>
+    <row r="286" spans="1:9">
+      <c r="A286" s="23"/>
+      <c r="B286" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C286" s="5">
+        <v>1</v>
+      </c>
+      <c r="D286" s="9"/>
+      <c r="E286" s="9"/>
+      <c r="F286" s="9"/>
+      <c r="G286" s="6"/>
+      <c r="H286" s="6"/>
+      <c r="I286" s="12"/>
+    </row>
+    <row r="287" spans="1:9">
+      <c r="A287" s="23"/>
+      <c r="B287" s="26"/>
+      <c r="C287" s="5">
+        <v>2</v>
+      </c>
+      <c r="D287" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E287" s="9">
+        <v>5</v>
+      </c>
+      <c r="F287" s="9">
+        <v>250</v>
+      </c>
+      <c r="G287" s="6"/>
+      <c r="H287" s="6"/>
+      <c r="I287" s="12"/>
+    </row>
+    <row r="288" spans="1:9">
+      <c r="A288" s="23"/>
+      <c r="B288" s="26"/>
+      <c r="C288" s="5">
+        <v>3</v>
+      </c>
+      <c r="D288" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E288" s="9">
+        <v>5</v>
+      </c>
+      <c r="F288" s="9">
+        <v>200</v>
+      </c>
+      <c r="G288" s="6"/>
+      <c r="H288" s="6"/>
+      <c r="I288" s="12"/>
+    </row>
+    <row r="289" spans="1:9">
+      <c r="A289" s="24"/>
+      <c r="B289" s="29"/>
+      <c r="C289" s="13">
+        <v>4</v>
+      </c>
+      <c r="D289" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E289" s="9">
+        <v>5</v>
+      </c>
+      <c r="F289" s="9">
+        <v>150</v>
+      </c>
+      <c r="G289" s="14"/>
+      <c r="H289" s="14"/>
+      <c r="I289" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="90">
+    <mergeCell ref="A274:A289"/>
+    <mergeCell ref="B274:B277"/>
+    <mergeCell ref="B278:B281"/>
+    <mergeCell ref="B282:B285"/>
+    <mergeCell ref="B286:B289"/>
+    <mergeCell ref="A258:A273"/>
+    <mergeCell ref="B258:B261"/>
+    <mergeCell ref="B262:B265"/>
+    <mergeCell ref="B266:B269"/>
+    <mergeCell ref="B270:B273"/>
     <mergeCell ref="A66:A81"/>
     <mergeCell ref="B66:B69"/>
     <mergeCell ref="B70:B73"/>
@@ -2436,6 +6502,61 @@
     <mergeCell ref="B38:B41"/>
     <mergeCell ref="B42:B45"/>
     <mergeCell ref="B46:B49"/>
+    <mergeCell ref="A82:A97"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="A98:A113"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="B106:B109"/>
+    <mergeCell ref="B110:B113"/>
+    <mergeCell ref="A114:A129"/>
+    <mergeCell ref="B114:B117"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="B126:B129"/>
+    <mergeCell ref="A130:A145"/>
+    <mergeCell ref="B130:B133"/>
+    <mergeCell ref="B134:B137"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="B142:B145"/>
+    <mergeCell ref="A146:A161"/>
+    <mergeCell ref="B146:B149"/>
+    <mergeCell ref="B150:B153"/>
+    <mergeCell ref="B154:B157"/>
+    <mergeCell ref="B158:B161"/>
+    <mergeCell ref="A162:A177"/>
+    <mergeCell ref="B162:B165"/>
+    <mergeCell ref="B166:B169"/>
+    <mergeCell ref="B170:B173"/>
+    <mergeCell ref="B174:B177"/>
+    <mergeCell ref="A178:A193"/>
+    <mergeCell ref="B178:B181"/>
+    <mergeCell ref="B182:B185"/>
+    <mergeCell ref="B186:B189"/>
+    <mergeCell ref="B190:B193"/>
+    <mergeCell ref="A194:A209"/>
+    <mergeCell ref="B194:B197"/>
+    <mergeCell ref="B198:B201"/>
+    <mergeCell ref="B202:B205"/>
+    <mergeCell ref="B206:B209"/>
+    <mergeCell ref="A210:A225"/>
+    <mergeCell ref="B210:B213"/>
+    <mergeCell ref="B214:B217"/>
+    <mergeCell ref="B218:B221"/>
+    <mergeCell ref="B222:B225"/>
+    <mergeCell ref="A226:A241"/>
+    <mergeCell ref="B226:B229"/>
+    <mergeCell ref="B230:B233"/>
+    <mergeCell ref="B234:B237"/>
+    <mergeCell ref="B238:B241"/>
+    <mergeCell ref="A242:A257"/>
+    <mergeCell ref="B242:B245"/>
+    <mergeCell ref="B246:B249"/>
+    <mergeCell ref="B250:B253"/>
+    <mergeCell ref="B254:B257"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2443,15 +6564,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100695ECA461C232F4AAEC38BDBCF991C34" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="59a9ea53a97323102fd6db9b998f0b5b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b78d6d24-d6db-4d75-9c62-aa5d16939a2a" xmlns:ns3="029942aa-539e-4767-81e4-a62063a6e1cb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c1df2dcb4e8f42f9041788b58686dd0b" ns2:_="" ns3:_="">
     <xsd:import namespace="b78d6d24-d6db-4d75-9c62-aa5d16939a2a"/>
@@ -2734,7 +6846,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <ApprovalRequested xmlns="b78d6d24-d6db-4d75-9c62-aa5d16939a2a" xsi:nil="true"/>
@@ -2755,14 +6867,23 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C55BA5DB-FABC-42B8-A62D-4229D8279EF7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72F46C54-F7FE-4881-AE33-32A42E9027D0}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72F46C54-F7FE-4881-AE33-32A42E9027D0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDD6B012-B9AC-4751-AE85-9BF9548DF2A7}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDD6B012-B9AC-4751-AE85-9BF9548DF2A7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C55BA5DB-FABC-42B8-A62D-4229D8279EF7}"/>
 </file>
--- a/Characterisation Data/Array Target Characterisation.xlsx
+++ b/Characterisation Data/Array Target Characterisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stfc365.sharepoint.com/sites/TargetFabrication2/Shared Documents/1. Expt Planning/GTA 1022 Borghesi/3. Delivery/Characterisation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="212" documentId="11_FE310490A0B32A38BD8A12762798BD300347D4B6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E24559A-F567-4CEC-BB79-57165D4B6D05}"/>
+  <xr:revisionPtr revIDLastSave="298" documentId="11_FE310490A0B32A38BD8A12762798BD300347D4B6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2D1A588-1B82-404A-AB3A-6F8126AE0F5C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="15">
   <si>
     <t>Array</t>
   </si>
   <si>
-    <t>Row</t>
+    <t>Column</t>
   </si>
   <si>
-    <t>Column</t>
+    <t>Row</t>
   </si>
   <si>
     <t>Material</t>
@@ -104,7 +104,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -376,11 +376,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -448,6 +489,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,50 +524,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>357331</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>19059</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="21587408">
-          <a:off x="14868525" y="276225"/>
-          <a:ext cx="3853006" cy="4505334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -541,7 +554,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -824,10 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I289"/>
+  <dimension ref="A1:I337"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
-      <selection activeCell="M270" sqref="M270"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3356,14 +3369,12 @@
         <v>1</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E130" s="9">
-        <v>5</v>
-      </c>
-      <c r="F130" s="9">
-        <v>250</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="F130" s="9"/>
       <c r="G130" s="10"/>
       <c r="H130" s="10"/>
       <c r="I130" s="11"/>
@@ -3670,14 +3681,12 @@
         <v>1</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E146" s="9">
-        <v>5</v>
-      </c>
-      <c r="F146" s="9">
-        <v>250</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="F146" s="9"/>
       <c r="G146" s="10"/>
       <c r="H146" s="10"/>
       <c r="I146" s="11"/>
@@ -3984,14 +3993,12 @@
         <v>1</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E162" s="9">
-        <v>5</v>
-      </c>
-      <c r="F162" s="9">
-        <v>250</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="F162" s="9"/>
       <c r="G162" s="10"/>
       <c r="H162" s="10"/>
       <c r="I162" s="11"/>
@@ -4298,14 +4305,12 @@
         <v>1</v>
       </c>
       <c r="D178" s="9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E178" s="9">
-        <v>5</v>
-      </c>
-      <c r="F178" s="9">
-        <v>250</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="F178" s="9"/>
       <c r="G178" s="10"/>
       <c r="H178" s="10"/>
       <c r="I178" s="11"/>
@@ -4612,14 +4617,12 @@
         <v>1</v>
       </c>
       <c r="D194" s="9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E194" s="9">
-        <v>5</v>
-      </c>
-      <c r="F194" s="9">
-        <v>200</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="F194" s="9"/>
       <c r="G194" s="10"/>
       <c r="H194" s="10"/>
       <c r="I194" s="11"/>
@@ -4926,14 +4929,12 @@
         <v>1</v>
       </c>
       <c r="D210" s="9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E210" s="9">
-        <v>5</v>
-      </c>
-      <c r="F210" s="9">
-        <v>200</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="F210" s="9"/>
       <c r="G210" s="10"/>
       <c r="H210" s="10"/>
       <c r="I210" s="11"/>
@@ -5240,14 +5241,12 @@
         <v>1</v>
       </c>
       <c r="D226" s="9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E226" s="9">
-        <v>5</v>
-      </c>
-      <c r="F226" s="9">
-        <v>200</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="F226" s="9"/>
       <c r="G226" s="10"/>
       <c r="H226" s="10"/>
       <c r="I226" s="11"/>
@@ -5554,14 +5553,12 @@
         <v>1</v>
       </c>
       <c r="D242" s="9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E242" s="9">
-        <v>5</v>
-      </c>
-      <c r="F242" s="9">
-        <v>150</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="F242" s="9"/>
       <c r="G242" s="10"/>
       <c r="H242" s="10"/>
       <c r="I242" s="11"/>
@@ -6181,13 +6178,13 @@
       <c r="C274" s="9">
         <v>1</v>
       </c>
-      <c r="D274" s="9" t="s">
+      <c r="D274" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E274" s="9">
+      <c r="E274" s="33">
         <v>25</v>
       </c>
-      <c r="F274" s="9"/>
+      <c r="F274" s="33"/>
       <c r="G274" s="10"/>
       <c r="H274" s="10"/>
       <c r="I274" s="11"/>
@@ -6195,57 +6192,57 @@
     <row r="275" spans="1:9">
       <c r="A275" s="23"/>
       <c r="B275" s="26"/>
-      <c r="C275" s="5">
-        <v>2</v>
-      </c>
-      <c r="D275" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E275" s="9">
-        <v>5</v>
-      </c>
-      <c r="F275" s="9">
+      <c r="C275" s="35">
+        <v>2</v>
+      </c>
+      <c r="D275" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E275" s="34">
+        <v>5</v>
+      </c>
+      <c r="F275" s="34">
         <v>250</v>
       </c>
-      <c r="G275" s="6"/>
+      <c r="G275" s="36"/>
       <c r="H275" s="6"/>
       <c r="I275" s="12"/>
     </row>
     <row r="276" spans="1:9">
       <c r="A276" s="23"/>
       <c r="B276" s="26"/>
-      <c r="C276" s="5">
-        <v>3</v>
-      </c>
-      <c r="D276" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E276" s="9">
-        <v>5</v>
-      </c>
-      <c r="F276" s="9">
+      <c r="C276" s="35">
+        <v>3</v>
+      </c>
+      <c r="D276" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E276" s="34">
+        <v>5</v>
+      </c>
+      <c r="F276" s="34">
         <v>200</v>
       </c>
-      <c r="G276" s="6"/>
+      <c r="G276" s="36"/>
       <c r="H276" s="6"/>
       <c r="I276" s="12"/>
     </row>
     <row r="277" spans="1:9">
       <c r="A277" s="23"/>
       <c r="B277" s="27"/>
-      <c r="C277" s="5">
-        <v>4</v>
-      </c>
-      <c r="D277" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E277" s="9">
-        <v>5</v>
-      </c>
-      <c r="F277" s="9">
+      <c r="C277" s="35">
+        <v>4</v>
+      </c>
+      <c r="D277" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E277" s="34">
+        <v>5</v>
+      </c>
+      <c r="F277" s="34">
         <v>150</v>
       </c>
-      <c r="G277" s="6"/>
+      <c r="G277" s="36"/>
       <c r="H277" s="6"/>
       <c r="I277" s="12"/>
     </row>
@@ -6254,70 +6251,70 @@
       <c r="B278" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C278" s="5">
-        <v>1</v>
-      </c>
-      <c r="D278" s="9"/>
-      <c r="E278" s="9"/>
-      <c r="F278" s="9"/>
-      <c r="G278" s="6"/>
+      <c r="C278" s="35">
+        <v>1</v>
+      </c>
+      <c r="D278" s="34"/>
+      <c r="E278" s="34"/>
+      <c r="F278" s="34"/>
+      <c r="G278" s="36"/>
       <c r="H278" s="6"/>
       <c r="I278" s="12"/>
     </row>
     <row r="279" spans="1:9">
       <c r="A279" s="23"/>
       <c r="B279" s="26"/>
-      <c r="C279" s="5">
-        <v>2</v>
-      </c>
-      <c r="D279" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E279" s="9">
-        <v>5</v>
-      </c>
-      <c r="F279" s="9">
+      <c r="C279" s="35">
+        <v>2</v>
+      </c>
+      <c r="D279" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E279" s="34">
+        <v>5</v>
+      </c>
+      <c r="F279" s="34">
         <v>250</v>
       </c>
-      <c r="G279" s="6"/>
+      <c r="G279" s="36"/>
       <c r="H279" s="6"/>
       <c r="I279" s="12"/>
     </row>
     <row r="280" spans="1:9">
       <c r="A280" s="23"/>
       <c r="B280" s="26"/>
-      <c r="C280" s="5">
-        <v>3</v>
-      </c>
-      <c r="D280" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E280" s="9">
-        <v>5</v>
-      </c>
-      <c r="F280" s="9">
+      <c r="C280" s="35">
+        <v>3</v>
+      </c>
+      <c r="D280" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E280" s="34">
+        <v>5</v>
+      </c>
+      <c r="F280" s="34">
         <v>200</v>
       </c>
-      <c r="G280" s="6"/>
+      <c r="G280" s="36"/>
       <c r="H280" s="6"/>
       <c r="I280" s="12"/>
     </row>
     <row r="281" spans="1:9">
       <c r="A281" s="23"/>
       <c r="B281" s="27"/>
-      <c r="C281" s="5">
-        <v>4</v>
-      </c>
-      <c r="D281" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E281" s="9">
-        <v>5</v>
-      </c>
-      <c r="F281" s="9">
+      <c r="C281" s="35">
+        <v>4</v>
+      </c>
+      <c r="D281" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E281" s="34">
+        <v>5</v>
+      </c>
+      <c r="F281" s="34">
         <v>150</v>
       </c>
-      <c r="G281" s="6"/>
+      <c r="G281" s="36"/>
       <c r="H281" s="6"/>
       <c r="I281" s="12"/>
     </row>
@@ -6326,70 +6323,70 @@
       <c r="B282" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C282" s="5">
-        <v>1</v>
-      </c>
-      <c r="D282" s="9"/>
-      <c r="E282" s="9"/>
-      <c r="F282" s="9"/>
-      <c r="G282" s="6"/>
+      <c r="C282" s="35">
+        <v>1</v>
+      </c>
+      <c r="D282" s="34"/>
+      <c r="E282" s="34"/>
+      <c r="F282" s="34"/>
+      <c r="G282" s="36"/>
       <c r="H282" s="6"/>
       <c r="I282" s="12"/>
     </row>
     <row r="283" spans="1:9">
       <c r="A283" s="23"/>
       <c r="B283" s="26"/>
-      <c r="C283" s="5">
-        <v>2</v>
-      </c>
-      <c r="D283" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E283" s="9">
-        <v>5</v>
-      </c>
-      <c r="F283" s="9">
+      <c r="C283" s="35">
+        <v>2</v>
+      </c>
+      <c r="D283" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E283" s="34">
+        <v>5</v>
+      </c>
+      <c r="F283" s="34">
         <v>250</v>
       </c>
-      <c r="G283" s="6"/>
+      <c r="G283" s="36"/>
       <c r="H283" s="6"/>
       <c r="I283" s="12"/>
     </row>
     <row r="284" spans="1:9">
       <c r="A284" s="23"/>
       <c r="B284" s="26"/>
-      <c r="C284" s="5">
-        <v>3</v>
-      </c>
-      <c r="D284" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E284" s="9">
-        <v>5</v>
-      </c>
-      <c r="F284" s="9">
+      <c r="C284" s="35">
+        <v>3</v>
+      </c>
+      <c r="D284" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E284" s="34">
+        <v>5</v>
+      </c>
+      <c r="F284" s="34">
         <v>200</v>
       </c>
-      <c r="G284" s="6"/>
+      <c r="G284" s="36"/>
       <c r="H284" s="6"/>
       <c r="I284" s="12"/>
     </row>
     <row r="285" spans="1:9">
       <c r="A285" s="23"/>
       <c r="B285" s="27"/>
-      <c r="C285" s="5">
-        <v>4</v>
-      </c>
-      <c r="D285" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E285" s="9">
-        <v>5</v>
-      </c>
-      <c r="F285" s="9">
+      <c r="C285" s="35">
+        <v>4</v>
+      </c>
+      <c r="D285" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E285" s="34">
+        <v>5</v>
+      </c>
+      <c r="F285" s="34">
         <v>150</v>
       </c>
-      <c r="G285" s="6"/>
+      <c r="G285" s="36"/>
       <c r="H285" s="6"/>
       <c r="I285" s="12"/>
     </row>
@@ -6398,51 +6395,51 @@
       <c r="B286" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C286" s="5">
-        <v>1</v>
-      </c>
-      <c r="D286" s="9"/>
-      <c r="E286" s="9"/>
-      <c r="F286" s="9"/>
-      <c r="G286" s="6"/>
+      <c r="C286" s="35">
+        <v>1</v>
+      </c>
+      <c r="D286" s="34"/>
+      <c r="E286" s="34"/>
+      <c r="F286" s="34"/>
+      <c r="G286" s="36"/>
       <c r="H286" s="6"/>
       <c r="I286" s="12"/>
     </row>
     <row r="287" spans="1:9">
       <c r="A287" s="23"/>
       <c r="B287" s="26"/>
-      <c r="C287" s="5">
-        <v>2</v>
-      </c>
-      <c r="D287" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E287" s="9">
-        <v>5</v>
-      </c>
-      <c r="F287" s="9">
+      <c r="C287" s="35">
+        <v>2</v>
+      </c>
+      <c r="D287" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E287" s="34">
+        <v>5</v>
+      </c>
+      <c r="F287" s="34">
         <v>250</v>
       </c>
-      <c r="G287" s="6"/>
+      <c r="G287" s="36"/>
       <c r="H287" s="6"/>
       <c r="I287" s="12"/>
     </row>
     <row r="288" spans="1:9">
       <c r="A288" s="23"/>
       <c r="B288" s="26"/>
-      <c r="C288" s="5">
-        <v>3</v>
-      </c>
-      <c r="D288" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E288" s="9">
-        <v>5</v>
-      </c>
-      <c r="F288" s="9">
+      <c r="C288" s="35">
+        <v>3</v>
+      </c>
+      <c r="D288" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E288" s="34">
+        <v>5</v>
+      </c>
+      <c r="F288" s="34">
         <v>200</v>
       </c>
-      <c r="G288" s="6"/>
+      <c r="G288" s="36"/>
       <c r="H288" s="6"/>
       <c r="I288" s="12"/>
     </row>
@@ -6452,111 +6449,1044 @@
       <c r="C289" s="13">
         <v>4</v>
       </c>
-      <c r="D289" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E289" s="9">
-        <v>5</v>
-      </c>
-      <c r="F289" s="9">
+      <c r="D289" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E289" s="18">
+        <v>5</v>
+      </c>
+      <c r="F289" s="18">
         <v>150</v>
       </c>
       <c r="G289" s="14"/>
       <c r="H289" s="14"/>
       <c r="I289" s="15"/>
     </row>
+    <row r="290" spans="1:9">
+      <c r="A290" s="22">
+        <v>19</v>
+      </c>
+      <c r="B290" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C290" s="9">
+        <v>1</v>
+      </c>
+      <c r="D290" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E290" s="33">
+        <v>25</v>
+      </c>
+      <c r="F290" s="33"/>
+      <c r="G290" s="10"/>
+      <c r="H290" s="10"/>
+      <c r="I290" s="11"/>
+    </row>
+    <row r="291" spans="1:9">
+      <c r="A291" s="23"/>
+      <c r="B291" s="26"/>
+      <c r="C291" s="35">
+        <v>2</v>
+      </c>
+      <c r="D291" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E291" s="34">
+        <v>2</v>
+      </c>
+      <c r="F291" s="34">
+        <v>250</v>
+      </c>
+      <c r="G291" s="36"/>
+      <c r="H291" s="6"/>
+      <c r="I291" s="12"/>
+    </row>
+    <row r="292" spans="1:9">
+      <c r="A292" s="23"/>
+      <c r="B292" s="26"/>
+      <c r="C292" s="35">
+        <v>3</v>
+      </c>
+      <c r="D292" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E292" s="34">
+        <v>2</v>
+      </c>
+      <c r="F292" s="34">
+        <v>200</v>
+      </c>
+      <c r="G292" s="36"/>
+      <c r="H292" s="6"/>
+      <c r="I292" s="12"/>
+    </row>
+    <row r="293" spans="1:9">
+      <c r="A293" s="23"/>
+      <c r="B293" s="27"/>
+      <c r="C293" s="35">
+        <v>4</v>
+      </c>
+      <c r="D293" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E293" s="34">
+        <v>2</v>
+      </c>
+      <c r="F293" s="34">
+        <v>150</v>
+      </c>
+      <c r="G293" s="36"/>
+      <c r="H293" s="6"/>
+      <c r="I293" s="12"/>
+    </row>
+    <row r="294" spans="1:9">
+      <c r="A294" s="23"/>
+      <c r="B294" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C294" s="35">
+        <v>1</v>
+      </c>
+      <c r="D294" s="34"/>
+      <c r="E294" s="34"/>
+      <c r="F294" s="34"/>
+      <c r="G294" s="36"/>
+      <c r="H294" s="6"/>
+      <c r="I294" s="12"/>
+    </row>
+    <row r="295" spans="1:9">
+      <c r="A295" s="23"/>
+      <c r="B295" s="26"/>
+      <c r="C295" s="35">
+        <v>2</v>
+      </c>
+      <c r="D295" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E295" s="34">
+        <v>2</v>
+      </c>
+      <c r="F295" s="34">
+        <v>250</v>
+      </c>
+      <c r="G295" s="36"/>
+      <c r="H295" s="6"/>
+      <c r="I295" s="12"/>
+    </row>
+    <row r="296" spans="1:9">
+      <c r="A296" s="23"/>
+      <c r="B296" s="26"/>
+      <c r="C296" s="35">
+        <v>3</v>
+      </c>
+      <c r="D296" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E296" s="34">
+        <v>2</v>
+      </c>
+      <c r="F296" s="34">
+        <v>200</v>
+      </c>
+      <c r="G296" s="36"/>
+      <c r="H296" s="6"/>
+      <c r="I296" s="12"/>
+    </row>
+    <row r="297" spans="1:9">
+      <c r="A297" s="23"/>
+      <c r="B297" s="27"/>
+      <c r="C297" s="35">
+        <v>4</v>
+      </c>
+      <c r="D297" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E297" s="34">
+        <v>2</v>
+      </c>
+      <c r="F297" s="34">
+        <v>150</v>
+      </c>
+      <c r="G297" s="36"/>
+      <c r="H297" s="6"/>
+      <c r="I297" s="12"/>
+    </row>
+    <row r="298" spans="1:9">
+      <c r="A298" s="23"/>
+      <c r="B298" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C298" s="35">
+        <v>1</v>
+      </c>
+      <c r="D298" s="34"/>
+      <c r="E298" s="34"/>
+      <c r="F298" s="34"/>
+      <c r="G298" s="36"/>
+      <c r="H298" s="6"/>
+      <c r="I298" s="12"/>
+    </row>
+    <row r="299" spans="1:9">
+      <c r="A299" s="23"/>
+      <c r="B299" s="26"/>
+      <c r="C299" s="35">
+        <v>2</v>
+      </c>
+      <c r="D299" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E299" s="34">
+        <v>2</v>
+      </c>
+      <c r="F299" s="34">
+        <v>250</v>
+      </c>
+      <c r="G299" s="36"/>
+      <c r="H299" s="6"/>
+      <c r="I299" s="12"/>
+    </row>
+    <row r="300" spans="1:9">
+      <c r="A300" s="23"/>
+      <c r="B300" s="26"/>
+      <c r="C300" s="35">
+        <v>3</v>
+      </c>
+      <c r="D300" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E300" s="34">
+        <v>2</v>
+      </c>
+      <c r="F300" s="34">
+        <v>200</v>
+      </c>
+      <c r="G300" s="36"/>
+      <c r="H300" s="6"/>
+      <c r="I300" s="12"/>
+    </row>
+    <row r="301" spans="1:9">
+      <c r="A301" s="23"/>
+      <c r="B301" s="27"/>
+      <c r="C301" s="35">
+        <v>4</v>
+      </c>
+      <c r="D301" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E301" s="34">
+        <v>2</v>
+      </c>
+      <c r="F301" s="34">
+        <v>150</v>
+      </c>
+      <c r="G301" s="36"/>
+      <c r="H301" s="6"/>
+      <c r="I301" s="12"/>
+    </row>
+    <row r="302" spans="1:9">
+      <c r="A302" s="23"/>
+      <c r="B302" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C302" s="35">
+        <v>1</v>
+      </c>
+      <c r="D302" s="34"/>
+      <c r="E302" s="34"/>
+      <c r="F302" s="34"/>
+      <c r="G302" s="36"/>
+      <c r="H302" s="6"/>
+      <c r="I302" s="12"/>
+    </row>
+    <row r="303" spans="1:9">
+      <c r="A303" s="23"/>
+      <c r="B303" s="26"/>
+      <c r="C303" s="35">
+        <v>2</v>
+      </c>
+      <c r="D303" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E303" s="34">
+        <v>2</v>
+      </c>
+      <c r="F303" s="34">
+        <v>250</v>
+      </c>
+      <c r="G303" s="36"/>
+      <c r="H303" s="6"/>
+      <c r="I303" s="12"/>
+    </row>
+    <row r="304" spans="1:9">
+      <c r="A304" s="23"/>
+      <c r="B304" s="26"/>
+      <c r="C304" s="35">
+        <v>3</v>
+      </c>
+      <c r="D304" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E304" s="34">
+        <v>2</v>
+      </c>
+      <c r="F304" s="34">
+        <v>200</v>
+      </c>
+      <c r="G304" s="36"/>
+      <c r="H304" s="6"/>
+      <c r="I304" s="12"/>
+    </row>
+    <row r="305" spans="1:9">
+      <c r="A305" s="24"/>
+      <c r="B305" s="29"/>
+      <c r="C305" s="13">
+        <v>4</v>
+      </c>
+      <c r="D305" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E305" s="18">
+        <v>2</v>
+      </c>
+      <c r="F305" s="18">
+        <v>150</v>
+      </c>
+      <c r="G305" s="14"/>
+      <c r="H305" s="14"/>
+      <c r="I305" s="15"/>
+    </row>
+    <row r="306" spans="1:9">
+      <c r="A306" s="22">
+        <v>20</v>
+      </c>
+      <c r="B306" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C306" s="9">
+        <v>1</v>
+      </c>
+      <c r="D306" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E306" s="33">
+        <v>25</v>
+      </c>
+      <c r="F306" s="33"/>
+      <c r="G306" s="10"/>
+      <c r="H306" s="10"/>
+      <c r="I306" s="11"/>
+    </row>
+    <row r="307" spans="1:9">
+      <c r="A307" s="23"/>
+      <c r="B307" s="26"/>
+      <c r="C307" s="35">
+        <v>2</v>
+      </c>
+      <c r="D307" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E307" s="34">
+        <v>5</v>
+      </c>
+      <c r="F307" s="34">
+        <v>300</v>
+      </c>
+      <c r="G307" s="36"/>
+      <c r="H307" s="6"/>
+      <c r="I307" s="12"/>
+    </row>
+    <row r="308" spans="1:9">
+      <c r="A308" s="23"/>
+      <c r="B308" s="26"/>
+      <c r="C308" s="35">
+        <v>3</v>
+      </c>
+      <c r="D308" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E308" s="34">
+        <v>5</v>
+      </c>
+      <c r="F308" s="34">
+        <v>400</v>
+      </c>
+      <c r="G308" s="36"/>
+      <c r="H308" s="6"/>
+      <c r="I308" s="12"/>
+    </row>
+    <row r="309" spans="1:9">
+      <c r="A309" s="23"/>
+      <c r="B309" s="27"/>
+      <c r="C309" s="35">
+        <v>4</v>
+      </c>
+      <c r="D309" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E309" s="34">
+        <v>5</v>
+      </c>
+      <c r="F309" s="34">
+        <v>500</v>
+      </c>
+      <c r="G309" s="36"/>
+      <c r="H309" s="6"/>
+      <c r="I309" s="12"/>
+    </row>
+    <row r="310" spans="1:9">
+      <c r="A310" s="23"/>
+      <c r="B310" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C310" s="35">
+        <v>1</v>
+      </c>
+      <c r="D310" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E310" s="34">
+        <v>5</v>
+      </c>
+      <c r="F310" s="34">
+        <v>200</v>
+      </c>
+      <c r="G310" s="36"/>
+      <c r="H310" s="6"/>
+      <c r="I310" s="12"/>
+    </row>
+    <row r="311" spans="1:9">
+      <c r="A311" s="23"/>
+      <c r="B311" s="26"/>
+      <c r="C311" s="35">
+        <v>2</v>
+      </c>
+      <c r="D311" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E311" s="34">
+        <v>5</v>
+      </c>
+      <c r="F311" s="34">
+        <v>300</v>
+      </c>
+      <c r="G311" s="36"/>
+      <c r="H311" s="6"/>
+      <c r="I311" s="12"/>
+    </row>
+    <row r="312" spans="1:9">
+      <c r="A312" s="23"/>
+      <c r="B312" s="26"/>
+      <c r="C312" s="35">
+        <v>3</v>
+      </c>
+      <c r="D312" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E312" s="34">
+        <v>5</v>
+      </c>
+      <c r="F312" s="34">
+        <v>400</v>
+      </c>
+      <c r="G312" s="36"/>
+      <c r="H312" s="6"/>
+      <c r="I312" s="12"/>
+    </row>
+    <row r="313" spans="1:9">
+      <c r="A313" s="23"/>
+      <c r="B313" s="27"/>
+      <c r="C313" s="35">
+        <v>4</v>
+      </c>
+      <c r="D313" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E313" s="34">
+        <v>5</v>
+      </c>
+      <c r="F313" s="34">
+        <v>500</v>
+      </c>
+      <c r="G313" s="36"/>
+      <c r="H313" s="6"/>
+      <c r="I313" s="12"/>
+    </row>
+    <row r="314" spans="1:9">
+      <c r="A314" s="23"/>
+      <c r="B314" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C314" s="35">
+        <v>1</v>
+      </c>
+      <c r="D314" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E314" s="34">
+        <v>5</v>
+      </c>
+      <c r="F314" s="34">
+        <v>200</v>
+      </c>
+      <c r="G314" s="36"/>
+      <c r="H314" s="6"/>
+      <c r="I314" s="12"/>
+    </row>
+    <row r="315" spans="1:9">
+      <c r="A315" s="23"/>
+      <c r="B315" s="26"/>
+      <c r="C315" s="35">
+        <v>2</v>
+      </c>
+      <c r="D315" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E315" s="34">
+        <v>5</v>
+      </c>
+      <c r="F315" s="34">
+        <v>300</v>
+      </c>
+      <c r="G315" s="36"/>
+      <c r="H315" s="6"/>
+      <c r="I315" s="12"/>
+    </row>
+    <row r="316" spans="1:9">
+      <c r="A316" s="23"/>
+      <c r="B316" s="26"/>
+      <c r="C316" s="35">
+        <v>3</v>
+      </c>
+      <c r="D316" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E316" s="34">
+        <v>5</v>
+      </c>
+      <c r="F316" s="34">
+        <v>400</v>
+      </c>
+      <c r="G316" s="36"/>
+      <c r="H316" s="6"/>
+      <c r="I316" s="12"/>
+    </row>
+    <row r="317" spans="1:9">
+      <c r="A317" s="23"/>
+      <c r="B317" s="27"/>
+      <c r="C317" s="35">
+        <v>4</v>
+      </c>
+      <c r="D317" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E317" s="34">
+        <v>5</v>
+      </c>
+      <c r="F317" s="34">
+        <v>500</v>
+      </c>
+      <c r="G317" s="36"/>
+      <c r="H317" s="6"/>
+      <c r="I317" s="12"/>
+    </row>
+    <row r="318" spans="1:9">
+      <c r="A318" s="23"/>
+      <c r="B318" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C318" s="35">
+        <v>1</v>
+      </c>
+      <c r="D318" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E318" s="34">
+        <v>5</v>
+      </c>
+      <c r="F318" s="34">
+        <v>200</v>
+      </c>
+      <c r="G318" s="36"/>
+      <c r="H318" s="6"/>
+      <c r="I318" s="12"/>
+    </row>
+    <row r="319" spans="1:9">
+      <c r="A319" s="23"/>
+      <c r="B319" s="26"/>
+      <c r="C319" s="35">
+        <v>2</v>
+      </c>
+      <c r="D319" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E319" s="34">
+        <v>5</v>
+      </c>
+      <c r="F319" s="34">
+        <v>300</v>
+      </c>
+      <c r="G319" s="36"/>
+      <c r="H319" s="6"/>
+      <c r="I319" s="12"/>
+    </row>
+    <row r="320" spans="1:9">
+      <c r="A320" s="23"/>
+      <c r="B320" s="26"/>
+      <c r="C320" s="35">
+        <v>3</v>
+      </c>
+      <c r="D320" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E320" s="34">
+        <v>5</v>
+      </c>
+      <c r="F320" s="34">
+        <v>400</v>
+      </c>
+      <c r="G320" s="36"/>
+      <c r="H320" s="6"/>
+      <c r="I320" s="12"/>
+    </row>
+    <row r="321" spans="1:9">
+      <c r="A321" s="23"/>
+      <c r="B321" s="26"/>
+      <c r="C321" s="16">
+        <v>4</v>
+      </c>
+      <c r="D321" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E321" s="37">
+        <v>5</v>
+      </c>
+      <c r="F321" s="37">
+        <v>500</v>
+      </c>
+      <c r="G321" s="17"/>
+      <c r="H321" s="17"/>
+      <c r="I321" s="21"/>
+    </row>
+    <row r="322" spans="1:9">
+      <c r="A322" s="22">
+        <v>21</v>
+      </c>
+      <c r="B322" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C322" s="9">
+        <v>1</v>
+      </c>
+      <c r="D322" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E322" s="33">
+        <v>25</v>
+      </c>
+      <c r="F322" s="33"/>
+      <c r="G322" s="10"/>
+      <c r="H322" s="10"/>
+      <c r="I322" s="11"/>
+    </row>
+    <row r="323" spans="1:9">
+      <c r="A323" s="23"/>
+      <c r="B323" s="26"/>
+      <c r="C323" s="35">
+        <v>2</v>
+      </c>
+      <c r="D323" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E323" s="34">
+        <v>15</v>
+      </c>
+      <c r="F323" s="34">
+        <v>300</v>
+      </c>
+      <c r="G323" s="36"/>
+      <c r="H323" s="6"/>
+      <c r="I323" s="12"/>
+    </row>
+    <row r="324" spans="1:9">
+      <c r="A324" s="23"/>
+      <c r="B324" s="26"/>
+      <c r="C324" s="35">
+        <v>3</v>
+      </c>
+      <c r="D324" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E324" s="34">
+        <v>15</v>
+      </c>
+      <c r="F324" s="34">
+        <v>400</v>
+      </c>
+      <c r="G324" s="36"/>
+      <c r="H324" s="6"/>
+      <c r="I324" s="12"/>
+    </row>
+    <row r="325" spans="1:9">
+      <c r="A325" s="23"/>
+      <c r="B325" s="27"/>
+      <c r="C325" s="35">
+        <v>4</v>
+      </c>
+      <c r="D325" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E325" s="34">
+        <v>15</v>
+      </c>
+      <c r="F325" s="34">
+        <v>500</v>
+      </c>
+      <c r="G325" s="36"/>
+      <c r="H325" s="6"/>
+      <c r="I325" s="12"/>
+    </row>
+    <row r="326" spans="1:9">
+      <c r="A326" s="23"/>
+      <c r="B326" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C326" s="35">
+        <v>1</v>
+      </c>
+      <c r="D326" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E326" s="34">
+        <v>15</v>
+      </c>
+      <c r="F326" s="34">
+        <v>200</v>
+      </c>
+      <c r="G326" s="36"/>
+      <c r="H326" s="6"/>
+      <c r="I326" s="12"/>
+    </row>
+    <row r="327" spans="1:9">
+      <c r="A327" s="23"/>
+      <c r="B327" s="26"/>
+      <c r="C327" s="35">
+        <v>2</v>
+      </c>
+      <c r="D327" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E327" s="34">
+        <v>15</v>
+      </c>
+      <c r="F327" s="34">
+        <v>300</v>
+      </c>
+      <c r="G327" s="36"/>
+      <c r="H327" s="6"/>
+      <c r="I327" s="12"/>
+    </row>
+    <row r="328" spans="1:9">
+      <c r="A328" s="23"/>
+      <c r="B328" s="26"/>
+      <c r="C328" s="35">
+        <v>3</v>
+      </c>
+      <c r="D328" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E328" s="34">
+        <v>15</v>
+      </c>
+      <c r="F328" s="34">
+        <v>400</v>
+      </c>
+      <c r="G328" s="36"/>
+      <c r="H328" s="6"/>
+      <c r="I328" s="12"/>
+    </row>
+    <row r="329" spans="1:9">
+      <c r="A329" s="23"/>
+      <c r="B329" s="27"/>
+      <c r="C329" s="35">
+        <v>4</v>
+      </c>
+      <c r="D329" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E329" s="34">
+        <v>15</v>
+      </c>
+      <c r="F329" s="34">
+        <v>500</v>
+      </c>
+      <c r="G329" s="36"/>
+      <c r="H329" s="6"/>
+      <c r="I329" s="12"/>
+    </row>
+    <row r="330" spans="1:9">
+      <c r="A330" s="23"/>
+      <c r="B330" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C330" s="35">
+        <v>1</v>
+      </c>
+      <c r="D330" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E330" s="34">
+        <v>15</v>
+      </c>
+      <c r="F330" s="34">
+        <v>200</v>
+      </c>
+      <c r="G330" s="36"/>
+      <c r="H330" s="6"/>
+      <c r="I330" s="12"/>
+    </row>
+    <row r="331" spans="1:9">
+      <c r="A331" s="23"/>
+      <c r="B331" s="26"/>
+      <c r="C331" s="35">
+        <v>2</v>
+      </c>
+      <c r="D331" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E331" s="34">
+        <v>15</v>
+      </c>
+      <c r="F331" s="34">
+        <v>300</v>
+      </c>
+      <c r="G331" s="36"/>
+      <c r="H331" s="6"/>
+      <c r="I331" s="12"/>
+    </row>
+    <row r="332" spans="1:9">
+      <c r="A332" s="23"/>
+      <c r="B332" s="26"/>
+      <c r="C332" s="35">
+        <v>3</v>
+      </c>
+      <c r="D332" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E332" s="34">
+        <v>15</v>
+      </c>
+      <c r="F332" s="34">
+        <v>400</v>
+      </c>
+      <c r="G332" s="36"/>
+      <c r="H332" s="6"/>
+      <c r="I332" s="12"/>
+    </row>
+    <row r="333" spans="1:9">
+      <c r="A333" s="23"/>
+      <c r="B333" s="27"/>
+      <c r="C333" s="35">
+        <v>4</v>
+      </c>
+      <c r="D333" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E333" s="34">
+        <v>15</v>
+      </c>
+      <c r="F333" s="34">
+        <v>500</v>
+      </c>
+      <c r="G333" s="36"/>
+      <c r="H333" s="6"/>
+      <c r="I333" s="12"/>
+    </row>
+    <row r="334" spans="1:9">
+      <c r="A334" s="23"/>
+      <c r="B334" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C334" s="35">
+        <v>1</v>
+      </c>
+      <c r="D334" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E334" s="34">
+        <v>15</v>
+      </c>
+      <c r="F334" s="34">
+        <v>200</v>
+      </c>
+      <c r="G334" s="36"/>
+      <c r="H334" s="6"/>
+      <c r="I334" s="12"/>
+    </row>
+    <row r="335" spans="1:9">
+      <c r="A335" s="23"/>
+      <c r="B335" s="26"/>
+      <c r="C335" s="35">
+        <v>2</v>
+      </c>
+      <c r="D335" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E335" s="34">
+        <v>15</v>
+      </c>
+      <c r="F335" s="34">
+        <v>300</v>
+      </c>
+      <c r="G335" s="36"/>
+      <c r="H335" s="6"/>
+      <c r="I335" s="12"/>
+    </row>
+    <row r="336" spans="1:9">
+      <c r="A336" s="23"/>
+      <c r="B336" s="26"/>
+      <c r="C336" s="35">
+        <v>3</v>
+      </c>
+      <c r="D336" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E336" s="34">
+        <v>15</v>
+      </c>
+      <c r="F336" s="34">
+        <v>400</v>
+      </c>
+      <c r="G336" s="36"/>
+      <c r="H336" s="6"/>
+      <c r="I336" s="12"/>
+    </row>
+    <row r="337" spans="1:9">
+      <c r="A337" s="24"/>
+      <c r="B337" s="29"/>
+      <c r="C337" s="13">
+        <v>4</v>
+      </c>
+      <c r="D337" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E337" s="38">
+        <v>15</v>
+      </c>
+      <c r="F337" s="38">
+        <v>500</v>
+      </c>
+      <c r="G337" s="14"/>
+      <c r="H337" s="14"/>
+      <c r="I337" s="15"/>
+    </row>
   </sheetData>
-  <mergeCells count="90">
+  <mergeCells count="105">
+    <mergeCell ref="A322:A337"/>
+    <mergeCell ref="B322:B325"/>
+    <mergeCell ref="B326:B329"/>
+    <mergeCell ref="B330:B333"/>
+    <mergeCell ref="B334:B337"/>
+    <mergeCell ref="A306:A321"/>
+    <mergeCell ref="B306:B309"/>
+    <mergeCell ref="B310:B313"/>
+    <mergeCell ref="B314:B317"/>
+    <mergeCell ref="B318:B321"/>
+    <mergeCell ref="A290:A305"/>
+    <mergeCell ref="B290:B293"/>
+    <mergeCell ref="B294:B297"/>
+    <mergeCell ref="B298:B301"/>
+    <mergeCell ref="B302:B305"/>
+    <mergeCell ref="A242:A257"/>
+    <mergeCell ref="B242:B245"/>
+    <mergeCell ref="B246:B249"/>
+    <mergeCell ref="B250:B253"/>
+    <mergeCell ref="B254:B257"/>
+    <mergeCell ref="A226:A241"/>
+    <mergeCell ref="B226:B229"/>
+    <mergeCell ref="B230:B233"/>
+    <mergeCell ref="B234:B237"/>
+    <mergeCell ref="B238:B241"/>
+    <mergeCell ref="A210:A225"/>
+    <mergeCell ref="B210:B213"/>
+    <mergeCell ref="B214:B217"/>
+    <mergeCell ref="B218:B221"/>
+    <mergeCell ref="B222:B225"/>
+    <mergeCell ref="A194:A209"/>
+    <mergeCell ref="B194:B197"/>
+    <mergeCell ref="B198:B201"/>
+    <mergeCell ref="B202:B205"/>
+    <mergeCell ref="B206:B209"/>
+    <mergeCell ref="A178:A193"/>
+    <mergeCell ref="B178:B181"/>
+    <mergeCell ref="B182:B185"/>
+    <mergeCell ref="B186:B189"/>
+    <mergeCell ref="B190:B193"/>
+    <mergeCell ref="A162:A177"/>
+    <mergeCell ref="B162:B165"/>
+    <mergeCell ref="B166:B169"/>
+    <mergeCell ref="B170:B173"/>
+    <mergeCell ref="B174:B177"/>
+    <mergeCell ref="A146:A161"/>
+    <mergeCell ref="B146:B149"/>
+    <mergeCell ref="B150:B153"/>
+    <mergeCell ref="B154:B157"/>
+    <mergeCell ref="B158:B161"/>
+    <mergeCell ref="A130:A145"/>
+    <mergeCell ref="B130:B133"/>
+    <mergeCell ref="B134:B137"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="B142:B145"/>
+    <mergeCell ref="A114:A129"/>
+    <mergeCell ref="B114:B117"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="B126:B129"/>
+    <mergeCell ref="A98:A113"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="B106:B109"/>
+    <mergeCell ref="B110:B113"/>
+    <mergeCell ref="A82:A97"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="A34:A49"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="A50:A65"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A18:A33"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="A66:A81"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="A258:A273"/>
+    <mergeCell ref="B258:B261"/>
+    <mergeCell ref="B262:B265"/>
+    <mergeCell ref="B266:B269"/>
+    <mergeCell ref="B270:B273"/>
     <mergeCell ref="A274:A289"/>
     <mergeCell ref="B274:B277"/>
     <mergeCell ref="B278:B281"/>
     <mergeCell ref="B282:B285"/>
     <mergeCell ref="B286:B289"/>
-    <mergeCell ref="A258:A273"/>
-    <mergeCell ref="B258:B261"/>
-    <mergeCell ref="B262:B265"/>
-    <mergeCell ref="B266:B269"/>
-    <mergeCell ref="B270:B273"/>
-    <mergeCell ref="A66:A81"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="A18:A33"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A50:A65"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="A34:A49"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="A82:A97"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="A98:A113"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="B106:B109"/>
-    <mergeCell ref="B110:B113"/>
-    <mergeCell ref="A114:A129"/>
-    <mergeCell ref="B114:B117"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="B126:B129"/>
-    <mergeCell ref="A130:A145"/>
-    <mergeCell ref="B130:B133"/>
-    <mergeCell ref="B134:B137"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="B142:B145"/>
-    <mergeCell ref="A146:A161"/>
-    <mergeCell ref="B146:B149"/>
-    <mergeCell ref="B150:B153"/>
-    <mergeCell ref="B154:B157"/>
-    <mergeCell ref="B158:B161"/>
-    <mergeCell ref="A162:A177"/>
-    <mergeCell ref="B162:B165"/>
-    <mergeCell ref="B166:B169"/>
-    <mergeCell ref="B170:B173"/>
-    <mergeCell ref="B174:B177"/>
-    <mergeCell ref="A178:A193"/>
-    <mergeCell ref="B178:B181"/>
-    <mergeCell ref="B182:B185"/>
-    <mergeCell ref="B186:B189"/>
-    <mergeCell ref="B190:B193"/>
-    <mergeCell ref="A194:A209"/>
-    <mergeCell ref="B194:B197"/>
-    <mergeCell ref="B198:B201"/>
-    <mergeCell ref="B202:B205"/>
-    <mergeCell ref="B206:B209"/>
-    <mergeCell ref="A210:A225"/>
-    <mergeCell ref="B210:B213"/>
-    <mergeCell ref="B214:B217"/>
-    <mergeCell ref="B218:B221"/>
-    <mergeCell ref="B222:B225"/>
-    <mergeCell ref="A226:A241"/>
-    <mergeCell ref="B226:B229"/>
-    <mergeCell ref="B230:B233"/>
-    <mergeCell ref="B234:B237"/>
-    <mergeCell ref="B238:B241"/>
-    <mergeCell ref="A242:A257"/>
-    <mergeCell ref="B242:B245"/>
-    <mergeCell ref="B246:B249"/>
-    <mergeCell ref="B250:B253"/>
-    <mergeCell ref="B254:B257"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6847,6 +7777,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <ApprovalRequested xmlns="b78d6d24-d6db-4d75-9c62-aa5d16939a2a" xsi:nil="true"/>
@@ -6867,23 +7806,14 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72F46C54-F7FE-4881-AE33-32A42E9027D0}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDD6B012-B9AC-4751-AE85-9BF9548DF2A7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C55BA5DB-FABC-42B8-A62D-4229D8279EF7}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C55BA5DB-FABC-42B8-A62D-4229D8279EF7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDD6B012-B9AC-4751-AE85-9BF9548DF2A7}"/>
 </file>